--- a/Event_Studies/results_buying_time.xlsx
+++ b/Event_Studies/results_buying_time.xlsx
@@ -48,78 +48,78 @@
     <t>resid_sum</t>
   </si>
   <si>
+    <t>LLY</t>
+  </si>
+  <si>
+    <t>NATR</t>
+  </si>
+  <si>
+    <t>VMEO</t>
+  </si>
+  <si>
+    <t>PFE</t>
+  </si>
+  <si>
+    <t>HLT</t>
+  </si>
+  <si>
+    <t>MRK</t>
+  </si>
+  <si>
+    <t>SLB</t>
+  </si>
+  <si>
+    <t>CPRI</t>
+  </si>
+  <si>
+    <t>ABT</t>
+  </si>
+  <si>
     <t>GXO</t>
   </si>
   <si>
-    <t>VMEO</t>
-  </si>
-  <si>
-    <t>HLT</t>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>PG</t>
+  </si>
+  <si>
+    <t>KMB</t>
   </si>
   <si>
     <t>SNAP</t>
   </si>
   <si>
+    <t>MTW</t>
+  </si>
+  <si>
+    <t>ARNC</t>
+  </si>
+  <si>
+    <t>MHK</t>
+  </si>
+  <si>
+    <t>GEF</t>
+  </si>
+  <si>
+    <t>^GSPC</t>
+  </si>
+  <si>
+    <t>DPZ</t>
+  </si>
+  <si>
     <t>BMY</t>
   </si>
   <si>
-    <t>MRK</t>
-  </si>
-  <si>
-    <t>PFE</t>
-  </si>
-  <si>
-    <t>CL</t>
-  </si>
-  <si>
-    <t>KMB</t>
-  </si>
-  <si>
-    <t>ABC</t>
-  </si>
-  <si>
-    <t>PG</t>
-  </si>
-  <si>
-    <t>SLB</t>
-  </si>
-  <si>
-    <t>ARNC</t>
-  </si>
-  <si>
-    <t>GEF</t>
-  </si>
-  <si>
-    <t>NATR</t>
-  </si>
-  <si>
     <t>ABBV</t>
   </si>
   <si>
-    <t>CPRI</t>
-  </si>
-  <si>
-    <t>LLY</t>
-  </si>
-  <si>
-    <t>ABT</t>
-  </si>
-  <si>
-    <t>MTW</t>
-  </si>
-  <si>
-    <t>DPZ</t>
-  </si>
-  <si>
     <t>WFRD</t>
   </si>
   <si>
-    <t>^GSPC</t>
-  </si>
-  <si>
-    <t>MHK</t>
-  </si>
-  <si>
     <t>date</t>
   </si>
   <si>
@@ -150,481 +150,481 @@
     <t>[-5, 10]</t>
   </si>
   <si>
+    <t>0.0282</t>
+  </si>
+  <si>
+    <t>0.0214</t>
+  </si>
+  <si>
+    <t>0.049**</t>
+  </si>
+  <si>
+    <t>-0.0368</t>
+  </si>
+  <si>
+    <t>-0.0615</t>
+  </si>
+  <si>
+    <t>-0.0211</t>
+  </si>
+  <si>
+    <t>-0.037</t>
+  </si>
+  <si>
+    <t>0.0208</t>
+  </si>
+  <si>
+    <t>-0.0056</t>
+  </si>
+  <si>
     <t>0.0484</t>
   </si>
   <si>
-    <t>0.049**</t>
-  </si>
-  <si>
-    <t>-0.0615</t>
+    <t>0.0136</t>
+  </si>
+  <si>
+    <t>-0.0142</t>
+  </si>
+  <si>
+    <t>0.0034</t>
+  </si>
+  <si>
+    <t>0.0074</t>
   </si>
   <si>
     <t>0.1039</t>
   </si>
   <si>
+    <t>-0.0561**</t>
+  </si>
+  <si>
+    <t>0.0126</t>
+  </si>
+  <si>
+    <t>0.034</t>
+  </si>
+  <si>
+    <t>-0.042**</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>0.0125</t>
+  </si>
+  <si>
     <t>0.0023*</t>
   </si>
   <si>
-    <t>-0.0211</t>
-  </si>
-  <si>
-    <t>-0.0368</t>
-  </si>
-  <si>
-    <t>0.0136</t>
-  </si>
-  <si>
-    <t>0.0074</t>
-  </si>
-  <si>
-    <t>-0.0142</t>
-  </si>
-  <si>
-    <t>0.0034</t>
-  </si>
-  <si>
-    <t>-0.037</t>
-  </si>
-  <si>
-    <t>0.0126</t>
-  </si>
-  <si>
-    <t>-0.042**</t>
-  </si>
-  <si>
-    <t>0.0214</t>
-  </si>
-  <si>
     <t>0.0114</t>
   </si>
   <si>
-    <t>0.0208</t>
-  </si>
-  <si>
-    <t>0.0282</t>
-  </si>
-  <si>
-    <t>-0.0056</t>
-  </si>
-  <si>
-    <t>-0.0561**</t>
-  </si>
-  <si>
-    <t>0.0125</t>
-  </si>
-  <si>
     <t>-0.104**</t>
   </si>
   <si>
-    <t>0.0</t>
-  </si>
-  <si>
-    <t>0.034</t>
+    <t>0.0107</t>
+  </si>
+  <si>
+    <t>-0.0071</t>
+  </si>
+  <si>
+    <t>0.0287**</t>
+  </si>
+  <si>
+    <t>-0.0161</t>
+  </si>
+  <si>
+    <t>0.0029</t>
+  </si>
+  <si>
+    <t>-0.0341</t>
+  </si>
+  <si>
+    <t>-0.0483</t>
+  </si>
+  <si>
+    <t>-0.0446</t>
+  </si>
+  <si>
+    <t>0.0044</t>
   </si>
   <si>
     <t>0.0072</t>
   </si>
   <si>
-    <t>0.0287**</t>
-  </si>
-  <si>
-    <t>0.0029</t>
+    <t>-0.0374</t>
+  </si>
+  <si>
+    <t>-0.018</t>
+  </si>
+  <si>
+    <t>-0.027</t>
+  </si>
+  <si>
+    <t>-0.0196</t>
   </si>
   <si>
     <t>-0.0233</t>
   </si>
   <si>
+    <t>0.0039**</t>
+  </si>
+  <si>
+    <t>-0.0638</t>
+  </si>
+  <si>
+    <t>-0.0147</t>
+  </si>
+  <si>
+    <t>-0.0347**</t>
+  </si>
+  <si>
+    <t>-0.0</t>
+  </si>
+  <si>
+    <t>0.0291</t>
+  </si>
+  <si>
     <t>-0.0211*</t>
   </si>
   <si>
-    <t>-0.0341</t>
-  </si>
-  <si>
-    <t>-0.0161</t>
-  </si>
-  <si>
-    <t>-0.0374</t>
-  </si>
-  <si>
-    <t>-0.0196</t>
-  </si>
-  <si>
-    <t>-0.018</t>
-  </si>
-  <si>
-    <t>-0.027</t>
-  </si>
-  <si>
-    <t>-0.0483</t>
-  </si>
-  <si>
-    <t>-0.0638</t>
-  </si>
-  <si>
-    <t>-0.0347**</t>
-  </si>
-  <si>
-    <t>-0.0071</t>
-  </si>
-  <si>
     <t>-0.0158</t>
   </si>
   <si>
-    <t>-0.0446</t>
-  </si>
-  <si>
-    <t>0.0107</t>
-  </si>
-  <si>
-    <t>0.0044</t>
-  </si>
-  <si>
-    <t>0.0039**</t>
-  </si>
-  <si>
-    <t>0.0291</t>
-  </si>
-  <si>
     <t>-0.0617**</t>
   </si>
   <si>
-    <t>-0.0</t>
-  </si>
-  <si>
-    <t>-0.0147</t>
+    <t>0.0587</t>
+  </si>
+  <si>
+    <t>-0.0317</t>
+  </si>
+  <si>
+    <t>-0.0539**</t>
+  </si>
+  <si>
+    <t>0.06</t>
+  </si>
+  <si>
+    <t>-0.0576</t>
+  </si>
+  <si>
+    <t>0.042</t>
+  </si>
+  <si>
+    <t>-0.0408</t>
+  </si>
+  <si>
+    <t>-0.082</t>
+  </si>
+  <si>
+    <t>0.0178</t>
   </si>
   <si>
     <t>-0.1149</t>
   </si>
   <si>
-    <t>-0.0539**</t>
-  </si>
-  <si>
-    <t>-0.0576</t>
+    <t>0.0357</t>
+  </si>
+  <si>
+    <t>0.0359</t>
+  </si>
+  <si>
+    <t>0.0217</t>
+  </si>
+  <si>
+    <t>0.0269</t>
   </si>
   <si>
     <t>-0.1938</t>
   </si>
   <si>
+    <t>0.0246**</t>
+  </si>
+  <si>
+    <t>-0.1112</t>
+  </si>
+  <si>
+    <t>-0.0011</t>
+  </si>
+  <si>
+    <t>0.0241**</t>
+  </si>
+  <si>
+    <t>-0.0226</t>
+  </si>
+  <si>
     <t>0.0046*</t>
   </si>
   <si>
-    <t>0.042</t>
-  </si>
-  <si>
-    <t>0.06</t>
-  </si>
-  <si>
-    <t>0.0357</t>
-  </si>
-  <si>
-    <t>0.0269</t>
-  </si>
-  <si>
-    <t>0.0359</t>
-  </si>
-  <si>
-    <t>0.0217</t>
-  </si>
-  <si>
-    <t>-0.0408</t>
-  </si>
-  <si>
-    <t>-0.1112</t>
-  </si>
-  <si>
-    <t>0.0241**</t>
-  </si>
-  <si>
-    <t>-0.0317</t>
-  </si>
-  <si>
     <t>0.0179</t>
   </si>
   <si>
-    <t>-0.082</t>
-  </si>
-  <si>
-    <t>0.0587</t>
-  </si>
-  <si>
-    <t>0.0178</t>
-  </si>
-  <si>
-    <t>0.0246**</t>
-  </si>
-  <si>
-    <t>-0.0226</t>
-  </si>
-  <si>
     <t>-0.0021**</t>
   </si>
   <si>
-    <t>-0.0011</t>
+    <t>0.0694</t>
+  </si>
+  <si>
+    <t>-0.0387</t>
+  </si>
+  <si>
+    <t>-0.0252**</t>
+  </si>
+  <si>
+    <t>0.0439</t>
+  </si>
+  <si>
+    <t>-0.0547</t>
+  </si>
+  <si>
+    <t>0.0079</t>
+  </si>
+  <si>
+    <t>-0.0891</t>
+  </si>
+  <si>
+    <t>-0.1266</t>
+  </si>
+  <si>
+    <t>0.0221</t>
   </si>
   <si>
     <t>-0.1077</t>
   </si>
   <si>
-    <t>-0.0252**</t>
-  </si>
-  <si>
-    <t>-0.0547</t>
+    <t>-0.0017</t>
+  </si>
+  <si>
+    <t>-0.0054</t>
+  </si>
+  <si>
+    <t>0.0073</t>
   </si>
   <si>
     <t>-0.2171</t>
   </si>
   <si>
+    <t>0.0285**</t>
+  </si>
+  <si>
+    <t>-0.175</t>
+  </si>
+  <si>
+    <t>-0.0106**</t>
+  </si>
+  <si>
+    <t>0.0065</t>
+  </si>
+  <si>
     <t>-0.0165*</t>
   </si>
   <si>
-    <t>0.0079</t>
-  </si>
-  <si>
-    <t>0.0439</t>
-  </si>
-  <si>
-    <t>-0.0017</t>
-  </si>
-  <si>
-    <t>0.0073</t>
-  </si>
-  <si>
-    <t>-0.0054</t>
-  </si>
-  <si>
-    <t>-0.0891</t>
-  </si>
-  <si>
-    <t>-0.175</t>
-  </si>
-  <si>
-    <t>-0.0106**</t>
-  </si>
-  <si>
-    <t>-0.0387</t>
-  </si>
-  <si>
     <t>0.0021</t>
   </si>
   <si>
-    <t>-0.1266</t>
-  </si>
-  <si>
-    <t>0.0694</t>
-  </si>
-  <si>
-    <t>0.0221</t>
-  </si>
-  <si>
-    <t>0.0285**</t>
-  </si>
-  <si>
-    <t>0.0065</t>
-  </si>
-  <si>
     <t>-0.0638**</t>
   </si>
   <si>
+    <t>0.114</t>
+  </si>
+  <si>
+    <t>-0.033</t>
+  </si>
+  <si>
+    <t>0.032**</t>
+  </si>
+  <si>
+    <t>0.1104</t>
+  </si>
+  <si>
+    <t>-0.0439</t>
+  </si>
+  <si>
+    <t>0.0514</t>
+  </si>
+  <si>
+    <t>0.0424</t>
+  </si>
+  <si>
+    <t>-0.3204</t>
+  </si>
+  <si>
+    <t>0.0121</t>
+  </si>
+  <si>
     <t>-0.218</t>
   </si>
   <si>
-    <t>0.032**</t>
-  </si>
-  <si>
-    <t>-0.0439</t>
+    <t>0.0011</t>
+  </si>
+  <si>
+    <t>0.0329</t>
+  </si>
+  <si>
+    <t>-0.0343</t>
+  </si>
+  <si>
+    <t>-0.0407</t>
   </si>
   <si>
     <t>-0.2359</t>
   </si>
   <si>
+    <t>-0.0001**</t>
+  </si>
+  <si>
+    <t>-0.2162</t>
+  </si>
+  <si>
+    <t>0.0005</t>
+  </si>
+  <si>
+    <t>0.0327**</t>
+  </si>
+  <si>
+    <t>0.0066</t>
+  </si>
+  <si>
     <t>-0.0164*</t>
   </si>
   <si>
-    <t>0.0514</t>
-  </si>
-  <si>
-    <t>0.1104</t>
-  </si>
-  <si>
-    <t>0.0011</t>
-  </si>
-  <si>
-    <t>-0.0407</t>
-  </si>
-  <si>
-    <t>0.0329</t>
-  </si>
-  <si>
-    <t>-0.0343</t>
-  </si>
-  <si>
-    <t>0.0424</t>
-  </si>
-  <si>
-    <t>-0.2162</t>
-  </si>
-  <si>
-    <t>0.0327**</t>
-  </si>
-  <si>
-    <t>-0.033</t>
-  </si>
-  <si>
     <t>0.001</t>
   </si>
   <si>
-    <t>-0.3204</t>
-  </si>
-  <si>
-    <t>0.114</t>
-  </si>
-  <si>
-    <t>0.0121</t>
-  </si>
-  <si>
-    <t>-0.0001**</t>
-  </si>
-  <si>
-    <t>0.0066</t>
-  </si>
-  <si>
     <t>0.1396**</t>
   </si>
   <si>
-    <t>0.0005</t>
+    <t>0.1247</t>
+  </si>
+  <si>
+    <t>-0.0401</t>
+  </si>
+  <si>
+    <t>0.0607**</t>
+  </si>
+  <si>
+    <t>0.0942</t>
+  </si>
+  <si>
+    <t>-0.041</t>
+  </si>
+  <si>
+    <t>0.0173</t>
+  </si>
+  <si>
+    <t>-0.0059</t>
+  </si>
+  <si>
+    <t>-0.365</t>
+  </si>
+  <si>
+    <t>0.0165</t>
   </si>
   <si>
     <t>-0.2108</t>
   </si>
   <si>
-    <t>0.0607**</t>
-  </si>
-  <si>
-    <t>-0.041</t>
+    <t>-0.0364</t>
+  </si>
+  <si>
+    <t>0.015</t>
+  </si>
+  <si>
+    <t>-0.0613</t>
+  </si>
+  <si>
+    <t>-0.0603</t>
   </si>
   <si>
     <t>-0.2591</t>
   </si>
   <si>
+    <t>0.0037**</t>
+  </si>
+  <si>
+    <t>-0.28</t>
+  </si>
+  <si>
+    <t>-0.002**</t>
+  </si>
+  <si>
     <t>-0.0375*</t>
   </si>
   <si>
-    <t>0.0173</t>
-  </si>
-  <si>
-    <t>0.0942</t>
-  </si>
-  <si>
-    <t>-0.0364</t>
-  </si>
-  <si>
-    <t>-0.0603</t>
-  </si>
-  <si>
-    <t>0.015</t>
-  </si>
-  <si>
-    <t>-0.0613</t>
-  </si>
-  <si>
-    <t>-0.0059</t>
-  </si>
-  <si>
-    <t>-0.28</t>
-  </si>
-  <si>
-    <t>-0.002**</t>
-  </si>
-  <si>
-    <t>-0.0401</t>
-  </si>
-  <si>
     <t>-0.0148</t>
   </si>
   <si>
-    <t>-0.365</t>
-  </si>
-  <si>
-    <t>0.1247</t>
-  </si>
-  <si>
-    <t>0.0165</t>
-  </si>
-  <si>
-    <t>0.0037**</t>
-  </si>
-  <si>
     <t>0.0779**</t>
   </si>
   <si>
+    <t>0.1529</t>
+  </si>
+  <si>
+    <t>-0.0187</t>
+  </si>
+  <si>
+    <t>0.1096**</t>
+  </si>
+  <si>
+    <t>0.0574</t>
+  </si>
+  <si>
+    <t>-0.1025</t>
+  </si>
+  <si>
+    <t>-0.0038</t>
+  </si>
+  <si>
+    <t>-0.0429</t>
+  </si>
+  <si>
+    <t>-0.3442</t>
+  </si>
+  <si>
+    <t>0.0108</t>
+  </si>
+  <si>
     <t>-0.1624</t>
   </si>
   <si>
-    <t>0.1096**</t>
-  </si>
-  <si>
-    <t>-0.1025</t>
+    <t>-0.0228</t>
+  </si>
+  <si>
+    <t>0.0008</t>
+  </si>
+  <si>
+    <t>-0.0579</t>
+  </si>
+  <si>
+    <t>-0.053</t>
   </si>
   <si>
     <t>-0.1552</t>
   </si>
   <si>
+    <t>-0.0523**</t>
+  </si>
+  <si>
+    <t>-0.2674</t>
+  </si>
+  <si>
+    <t>0.0199</t>
+  </si>
+  <si>
+    <t>-0.044**</t>
+  </si>
+  <si>
+    <t>0.0482</t>
+  </si>
+  <si>
     <t>-0.0352*</t>
   </si>
   <si>
-    <t>-0.0038</t>
-  </si>
-  <si>
-    <t>0.0574</t>
-  </si>
-  <si>
-    <t>-0.0228</t>
-  </si>
-  <si>
-    <t>-0.053</t>
-  </si>
-  <si>
-    <t>0.0008</t>
-  </si>
-  <si>
-    <t>-0.0579</t>
-  </si>
-  <si>
-    <t>-0.0429</t>
-  </si>
-  <si>
-    <t>-0.2674</t>
-  </si>
-  <si>
-    <t>-0.044**</t>
-  </si>
-  <si>
-    <t>-0.0187</t>
-  </si>
-  <si>
     <t>-0.0034</t>
   </si>
   <si>
-    <t>-0.3442</t>
-  </si>
-  <si>
-    <t>0.1529</t>
-  </si>
-  <si>
-    <t>0.0108</t>
-  </si>
-  <si>
-    <t>-0.0523**</t>
-  </si>
-  <si>
-    <t>0.0482</t>
-  </si>
-  <si>
     <t>-0.0261**</t>
-  </si>
-  <si>
-    <t>0.0199</t>
   </si>
 </sst>
 </file>
@@ -1029,25 +1029,25 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>0.4807962388417159</v>
+        <v>0.3411581901007303</v>
       </c>
       <c r="D2">
-        <v>0.4622532473717771</v>
+        <v>0.3176281254614707</v>
       </c>
       <c r="E2">
-        <v>0.002202898156465346</v>
+        <v>-0.001878483679762401</v>
       </c>
       <c r="F2">
-        <v>1.818629942564649</v>
+        <v>0.7391596762124913</v>
       </c>
       <c r="G2">
-        <v>2.156426693222662E-05</v>
+        <v>0.0007019395444657538</v>
       </c>
       <c r="H2">
-        <v>2.156426693222662E-05</v>
+        <v>0.0007019395444657561</v>
       </c>
       <c r="J2">
-        <v>1.908195823574488E-17</v>
+        <v>3.469446951953614E-18</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1058,25 +1058,25 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>0.2025737597105088</v>
+        <v>0.06875265170769518</v>
       </c>
       <c r="D3">
-        <v>0.1740942511287412</v>
+        <v>0.03549381784011274</v>
       </c>
       <c r="E3">
-        <v>-0.004888516968276237</v>
+        <v>-0.0007658015383816831</v>
       </c>
       <c r="F3">
-        <v>2.239494114950876</v>
+        <v>0.3405096533214202</v>
       </c>
       <c r="G3">
-        <v>0.01257298215877381</v>
+        <v>0.1615807557921618</v>
       </c>
       <c r="H3">
-        <v>0.01257298215877378</v>
+        <v>0.1615807557921623</v>
       </c>
       <c r="J3">
-        <v>1.179611963664229E-16</v>
+        <v>2.949029909160572E-17</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1087,25 +1087,25 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>0.2658971824926744</v>
+        <v>0.2025737597105088</v>
       </c>
       <c r="D4">
-        <v>0.2396792247245555</v>
+        <v>0.1740942511287412</v>
       </c>
       <c r="E4">
-        <v>0.002810878013458504</v>
+        <v>-0.004888516968276237</v>
       </c>
       <c r="F4">
-        <v>0.8793718661148289</v>
+        <v>2.239494114950876</v>
       </c>
       <c r="G4">
-        <v>0.003540168074946844</v>
+        <v>0.01257298215877381</v>
       </c>
       <c r="H4">
-        <v>0.003540168074946825</v>
+        <v>0.01257298215877378</v>
       </c>
       <c r="J4">
-        <v>3.122502256758253E-17</v>
+        <v>1.179611963664229E-16</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1116,25 +1116,25 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>0.259864384911631</v>
+        <v>0.001343371601161825</v>
       </c>
       <c r="D5">
-        <v>0.2334309700870463</v>
+        <v>-0.03432293655593965</v>
       </c>
       <c r="E5">
-        <v>0.00644403878272585</v>
+        <v>-0.004191834669581179</v>
       </c>
       <c r="F5">
-        <v>4.421484872590056</v>
+        <v>0.0473447070991541</v>
       </c>
       <c r="G5">
-        <v>0.004007346227997555</v>
+        <v>0.8475185295072902</v>
       </c>
       <c r="H5">
-        <v>0.004007346227997552</v>
+        <v>0.8475185295073041</v>
       </c>
       <c r="J5">
-        <v>3.157196726277789E-16</v>
+        <v>1.387778780781446E-17</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1145,25 +1145,25 @@
         <v>13</v>
       </c>
       <c r="C6">
-        <v>0.112664631933452</v>
+        <v>0.2658971824926744</v>
       </c>
       <c r="D6">
-        <v>0.08097408307393239</v>
+        <v>0.2396792247245555</v>
       </c>
       <c r="E6">
-        <v>0.003818943237203905</v>
+        <v>0.002810878013458504</v>
       </c>
       <c r="F6">
-        <v>0.3364730417400797</v>
+        <v>0.8793718661148289</v>
       </c>
       <c r="G6">
-        <v>0.06977628145779273</v>
+        <v>0.003540168074946844</v>
       </c>
       <c r="H6">
-        <v>0.06977628145779256</v>
+        <v>0.003540168074946825</v>
       </c>
       <c r="J6">
-        <v>-9.540979117872439E-18</v>
+        <v>3.122502256758253E-17</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1203,25 +1203,25 @@
         <v>15</v>
       </c>
       <c r="C8">
-        <v>0.001343371601161825</v>
+        <v>0.01496238766525226</v>
       </c>
       <c r="D8">
-        <v>-0.03432293655593965</v>
+        <v>-0.02021752706098878</v>
       </c>
       <c r="E8">
-        <v>-0.004191834669581179</v>
+        <v>0.008369484182106991</v>
       </c>
       <c r="F8">
-        <v>0.0473447070991541</v>
+        <v>0.2405476720583133</v>
       </c>
       <c r="G8">
-        <v>0.8475185295072902</v>
+        <v>0.5196172710050155</v>
       </c>
       <c r="H8">
-        <v>0.8475185295073041</v>
+        <v>0.5196172710050151</v>
       </c>
       <c r="J8">
-        <v>1.387778780781446E-17</v>
+        <v>-8.673617379884035E-18</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1232,25 +1232,25 @@
         <v>16</v>
       </c>
       <c r="C9">
-        <v>0.0003011693759545908</v>
+        <v>0.351203304667973</v>
       </c>
       <c r="D9">
-        <v>-0.03540236028918997</v>
+        <v>0.3280319941204005</v>
       </c>
       <c r="E9">
-        <v>-0.002428919109164688</v>
+        <v>0.005745952908929619</v>
       </c>
       <c r="F9">
-        <v>0.01184594961021448</v>
+        <v>1.636529824079471</v>
       </c>
       <c r="G9">
-        <v>0.9274761023061298</v>
+        <v>0.0005591658671120605</v>
       </c>
       <c r="H9">
-        <v>0.9274761023060962</v>
+        <v>0.0005591658671120617</v>
       </c>
       <c r="J9">
-        <v>1.561251128379126E-17</v>
+        <v>6.938893903907228E-18</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1261,25 +1261,25 @@
         <v>17</v>
       </c>
       <c r="C10">
-        <v>0.04757569863992162</v>
+        <v>0.3198681635075207</v>
       </c>
       <c r="D10">
-        <v>0.01356054501991877</v>
+        <v>0.2955777407756464</v>
       </c>
       <c r="E10">
-        <v>-0.003147179230930999</v>
+        <v>-0.002195843960399446</v>
       </c>
       <c r="F10">
-        <v>-0.2073882103275879</v>
+        <v>0.6939659487984611</v>
       </c>
       <c r="G10">
-        <v>0.2468932573083188</v>
+        <v>0.001125803691848021</v>
       </c>
       <c r="H10">
-        <v>0.2468932573083194</v>
+        <v>0.001125803691848016</v>
       </c>
       <c r="J10">
-        <v>2.992397996059992E-17</v>
+        <v>5.030698080332741E-17</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1290,25 +1290,25 @@
         <v>18</v>
       </c>
       <c r="C11">
-        <v>0.06004478123493251</v>
+        <v>0.4807962388417159</v>
       </c>
       <c r="D11">
-        <v>0.02647495199332284</v>
+        <v>0.4622532473717771</v>
       </c>
       <c r="E11">
-        <v>0.002727272998313977</v>
+        <v>0.002202898156465346</v>
       </c>
       <c r="F11">
-        <v>0.2440436303655747</v>
+        <v>1.818629942564649</v>
       </c>
       <c r="G11">
-        <v>0.1918537608899401</v>
+        <v>2.156426693222662E-05</v>
       </c>
       <c r="H11">
-        <v>0.1918537608899402</v>
+        <v>2.156426693222662E-05</v>
       </c>
       <c r="J11">
-        <v>-1.040834085586084E-17</v>
+        <v>1.908195823574488E-17</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1319,25 +1319,25 @@
         <v>19</v>
       </c>
       <c r="C12">
-        <v>0.004471788069421168</v>
+        <v>0.0003011693759545908</v>
       </c>
       <c r="D12">
-        <v>-0.03108279092809951</v>
+        <v>-0.03540236028918997</v>
       </c>
       <c r="E12">
-        <v>-0.001133688819924068</v>
+        <v>-0.002428919109164688</v>
       </c>
       <c r="F12">
-        <v>0.05731148556699025</v>
+        <v>0.01184594961021448</v>
       </c>
       <c r="G12">
-        <v>0.7255133975778976</v>
+        <v>0.9274761023061298</v>
       </c>
       <c r="H12">
-        <v>0.7255133975778936</v>
+        <v>0.9274761023060962</v>
       </c>
       <c r="J12">
-        <v>1.582935171828836E-17</v>
+        <v>1.561251128379126E-17</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1348,25 +1348,25 @@
         <v>20</v>
       </c>
       <c r="C13">
-        <v>0.01496238766525226</v>
+        <v>0.06004478123493251</v>
       </c>
       <c r="D13">
-        <v>-0.02021752706098878</v>
+        <v>0.02647495199332284</v>
       </c>
       <c r="E13">
-        <v>0.008369484182106991</v>
+        <v>0.002727272998313977</v>
       </c>
       <c r="F13">
-        <v>0.2405476720583133</v>
+        <v>0.2440436303655747</v>
       </c>
       <c r="G13">
-        <v>0.5196172710050155</v>
+        <v>0.1918537608899401</v>
       </c>
       <c r="H13">
-        <v>0.5196172710050151</v>
+        <v>0.1918537608899402</v>
       </c>
       <c r="J13">
-        <v>-8.673617379884035E-18</v>
+        <v>-1.040834085586084E-17</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1377,25 +1377,25 @@
         <v>21</v>
       </c>
       <c r="C14">
-        <v>0.2396039533500232</v>
+        <v>0.004471788069421168</v>
       </c>
       <c r="D14">
-        <v>0.2124469516839524</v>
+        <v>-0.03108279092809951</v>
       </c>
       <c r="E14">
-        <v>0.001145564104459111</v>
+        <v>-0.001133688819924068</v>
       </c>
       <c r="F14">
-        <v>0.879892461097371</v>
+        <v>0.05731148556699025</v>
       </c>
       <c r="G14">
-        <v>0.00604428850856346</v>
+        <v>0.7255133975778976</v>
       </c>
       <c r="H14">
-        <v>0.006044288508563467</v>
+        <v>0.7255133975778936</v>
       </c>
       <c r="J14">
-        <v>4.510281037539698E-17</v>
+        <v>1.582935171828836E-17</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1406,25 +1406,25 @@
         <v>22</v>
       </c>
       <c r="C15">
-        <v>0.1758990119349992</v>
+        <v>0.04757569863992162</v>
       </c>
       <c r="D15">
-        <v>0.1464668337898206</v>
+        <v>0.01356054501991877</v>
       </c>
       <c r="E15">
-        <v>0.002291359596958392</v>
+        <v>-0.003147179230930999</v>
       </c>
       <c r="F15">
-        <v>0.6276385409166197</v>
+        <v>-0.2073882103275879</v>
       </c>
       <c r="G15">
-        <v>0.02105001629768577</v>
+        <v>0.2468932573083188</v>
       </c>
       <c r="H15">
-        <v>0.02105001629768587</v>
+        <v>0.2468932573083194</v>
       </c>
       <c r="J15">
-        <v>-6.938893903907228E-18</v>
+        <v>2.992397996059992E-17</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1435,25 +1435,25 @@
         <v>23</v>
       </c>
       <c r="C16">
-        <v>0.06875265170769518</v>
+        <v>0.259864384911631</v>
       </c>
       <c r="D16">
-        <v>0.03549381784011274</v>
+        <v>0.2334309700870463</v>
       </c>
       <c r="E16">
-        <v>-0.0007658015383816831</v>
+        <v>0.00644403878272585</v>
       </c>
       <c r="F16">
-        <v>0.3405096533214202</v>
+        <v>4.421484872590056</v>
       </c>
       <c r="G16">
-        <v>0.1615807557921618</v>
+        <v>0.004007346227997555</v>
       </c>
       <c r="H16">
-        <v>0.1615807557921623</v>
+        <v>0.004007346227997552</v>
       </c>
       <c r="J16">
-        <v>2.949029909160572E-17</v>
+        <v>3.157196726277789E-16</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1464,25 +1464,25 @@
         <v>24</v>
       </c>
       <c r="C17">
-        <v>0.05941799590405439</v>
+        <v>0.1942036938119364</v>
       </c>
       <c r="D17">
-        <v>0.02582578147205628</v>
+        <v>0.1654252543052197</v>
       </c>
       <c r="E17">
-        <v>0.002685712746291303</v>
+        <v>0.000103073372029716</v>
       </c>
       <c r="F17">
-        <v>0.1974695448867822</v>
+        <v>0.9379715837385477</v>
       </c>
       <c r="G17">
-        <v>0.1942631635657546</v>
+        <v>0.01479397800329858</v>
       </c>
       <c r="H17">
-        <v>0.1942631635657544</v>
+        <v>0.01479397800329859</v>
       </c>
       <c r="J17">
-        <v>-2.51534904016637E-17</v>
+        <v>6.938893903907228E-18</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1493,25 +1493,25 @@
         <v>25</v>
       </c>
       <c r="C18">
-        <v>0.351203304667973</v>
+        <v>0.2396039533500232</v>
       </c>
       <c r="D18">
-        <v>0.3280319941204005</v>
+        <v>0.2124469516839524</v>
       </c>
       <c r="E18">
-        <v>0.005745952908929619</v>
+        <v>0.001145564104459111</v>
       </c>
       <c r="F18">
-        <v>1.636529824079471</v>
+        <v>0.879892461097371</v>
       </c>
       <c r="G18">
-        <v>0.0005591658671120605</v>
+        <v>0.00604428850856346</v>
       </c>
       <c r="H18">
-        <v>0.0005591658671120617</v>
+        <v>0.006044288508563467</v>
       </c>
       <c r="J18">
-        <v>6.938893903907228E-18</v>
+        <v>4.510281037539698E-17</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1522,25 +1522,25 @@
         <v>26</v>
       </c>
       <c r="C19">
-        <v>0.3411581901007303</v>
+        <v>0.5707046564362279</v>
       </c>
       <c r="D19">
-        <v>0.3176281254614707</v>
+        <v>0.5553726798803789</v>
       </c>
       <c r="E19">
-        <v>-0.001878483679762401</v>
+        <v>-0.003811869432186117</v>
       </c>
       <c r="F19">
-        <v>0.7391596762124913</v>
+        <v>1.43791773326716</v>
       </c>
       <c r="G19">
-        <v>0.0007019395444657538</v>
+        <v>1.394914220142076E-06</v>
       </c>
       <c r="H19">
-        <v>0.0007019395444657561</v>
+        <v>1.394914220142082E-06</v>
       </c>
       <c r="J19">
-        <v>3.469446951953614E-18</v>
+        <v>5.898059818321144E-17</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1551,25 +1551,25 @@
         <v>27</v>
       </c>
       <c r="C20">
-        <v>0.3198681635075207</v>
+        <v>0.1758990119349992</v>
       </c>
       <c r="D20">
-        <v>0.2955777407756464</v>
+        <v>0.1464668337898206</v>
       </c>
       <c r="E20">
-        <v>-0.002195843960399446</v>
+        <v>0.002291359596958392</v>
       </c>
       <c r="F20">
-        <v>0.6939659487984611</v>
+        <v>0.6276385409166197</v>
       </c>
       <c r="G20">
-        <v>0.001125803691848021</v>
+        <v>0.02105001629768577</v>
       </c>
       <c r="H20">
-        <v>0.001125803691848016</v>
+        <v>0.02105001629768587</v>
       </c>
       <c r="J20">
-        <v>5.030698080332741E-17</v>
+        <v>-6.938893903907228E-18</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1580,25 +1580,25 @@
         <v>28</v>
       </c>
       <c r="C21">
-        <v>0.1942036938119364</v>
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>0.1654252543052197</v>
+        <v>1</v>
       </c>
       <c r="E21">
-        <v>0.000103073372029716</v>
+        <v>-9.75781955236954E-19</v>
       </c>
       <c r="F21">
-        <v>0.9379715837385477</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.01479397800329858</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>0.01479397800329859</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>6.938893903907228E-18</v>
+        <v>3.859759734048396E-17</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1638,25 +1638,25 @@
         <v>30</v>
       </c>
       <c r="C23">
-        <v>0.132602636878754</v>
+        <v>0.112664631933452</v>
       </c>
       <c r="D23">
-        <v>0.1016241596244236</v>
+        <v>0.08097408307393239</v>
       </c>
       <c r="E23">
-        <v>0.00792830462994017</v>
+        <v>0.003818943237203905</v>
       </c>
       <c r="F23">
-        <v>1.069547023639981</v>
+        <v>0.3364730417400797</v>
       </c>
       <c r="G23">
-        <v>0.04789729506661058</v>
+        <v>0.06977628145779273</v>
       </c>
       <c r="H23">
-        <v>0.04789729506661082</v>
+        <v>0.06977628145779256</v>
       </c>
       <c r="J23">
-        <v>-1.040834085586084E-17</v>
+        <v>-9.540979117872439E-18</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1667,25 +1667,25 @@
         <v>31</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>0.05941799590405439</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>0.02582578147205628</v>
       </c>
       <c r="E24">
-        <v>-9.75781955236954E-19</v>
+        <v>0.002685712746291303</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.1974695448867822</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.1942631635657546</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.1942631635657544</v>
       </c>
       <c r="J24">
-        <v>3.859759734048396E-17</v>
+        <v>-2.51534904016637E-17</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1696,25 +1696,25 @@
         <v>32</v>
       </c>
       <c r="C25">
-        <v>0.5707046564362279</v>
+        <v>0.132602636878754</v>
       </c>
       <c r="D25">
-        <v>0.5553726798803789</v>
+        <v>0.1016241596244236</v>
       </c>
       <c r="E25">
-        <v>-0.003811869432186117</v>
+        <v>0.00792830462994017</v>
       </c>
       <c r="F25">
-        <v>1.43791773326716</v>
+        <v>1.069547023639981</v>
       </c>
       <c r="G25">
-        <v>1.394914220142076E-06</v>
+        <v>0.04789729506661058</v>
       </c>
       <c r="H25">
-        <v>1.394914220142082E-06</v>
+        <v>0.04789729506661082</v>
       </c>
       <c r="J25">
-        <v>5.898059818321144E-17</v>
+        <v>-1.040834085586084E-17</v>
       </c>
     </row>
   </sheetData>
@@ -1738,76 +1738,76 @@
         <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>29</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>34</v>
@@ -3239,76 +3239,76 @@
         <v>-5</v>
       </c>
       <c r="B2">
-        <v>0.020607</v>
+        <v>0.007111</v>
       </c>
       <c r="C2">
+        <v>0.02427</v>
+      </c>
+      <c r="D2">
         <v>-0.025318</v>
       </c>
-      <c r="D2">
+      <c r="E2">
+        <v>-0.002212</v>
+      </c>
+      <c r="F2">
         <v>-0.010562</v>
-      </c>
-      <c r="E2">
-        <v>-0.034876</v>
-      </c>
-      <c r="F2">
-        <v>-0.002512</v>
       </c>
       <c r="G2">
         <v>-0.007611</v>
       </c>
       <c r="H2">
-        <v>-0.002212</v>
+        <v>0.039134</v>
       </c>
       <c r="I2">
+        <v>0.011656</v>
+      </c>
+      <c r="J2">
+        <v>-0.002423</v>
+      </c>
+      <c r="K2">
+        <v>0.020607</v>
+      </c>
+      <c r="L2">
         <v>-0.003059</v>
       </c>
-      <c r="J2">
+      <c r="M2">
+        <v>0.008796</v>
+      </c>
+      <c r="N2">
+        <v>0.00756</v>
+      </c>
+      <c r="O2">
         <v>-0.003657</v>
       </c>
-      <c r="K2">
-        <v>0.008796</v>
-      </c>
-      <c r="L2">
-        <v>0.00756</v>
-      </c>
-      <c r="M2">
-        <v>0.039134</v>
-      </c>
-      <c r="N2">
+      <c r="P2">
+        <v>-0.034876</v>
+      </c>
+      <c r="Q2">
+        <v>0.01553</v>
+      </c>
+      <c r="R2">
         <v>0.010837</v>
       </c>
-      <c r="O2">
+      <c r="S2">
+        <v>0.012396</v>
+      </c>
+      <c r="T2">
         <v>-0.016968</v>
       </c>
-      <c r="P2">
-        <v>0.02427</v>
-      </c>
-      <c r="Q2">
-        <v>0.007639</v>
-      </c>
-      <c r="R2">
-        <v>0.011656</v>
-      </c>
-      <c r="S2">
-        <v>0.007111</v>
-      </c>
-      <c r="T2">
-        <v>-0.002423</v>
-      </c>
       <c r="U2">
-        <v>0.01553</v>
+        <v>0.0008809999999999999</v>
       </c>
       <c r="V2">
         <v>0.003097</v>
       </c>
       <c r="W2">
+        <v>-0.002512</v>
+      </c>
+      <c r="X2">
+        <v>0.007639</v>
+      </c>
+      <c r="Y2">
         <v>0.016866</v>
-      </c>
-      <c r="X2">
-        <v>0.0008809999999999999</v>
-      </c>
-      <c r="Y2">
-        <v>0.012396</v>
       </c>
       <c r="Z2" s="2">
         <v>44608</v>
@@ -3319,76 +3319,76 @@
         <v>-4</v>
       </c>
       <c r="B3">
-        <v>-0.018587</v>
+        <v>-0.01895</v>
       </c>
       <c r="C3">
+        <v>0.008682</v>
+      </c>
+      <c r="D3">
         <v>-0.013297</v>
       </c>
-      <c r="D3">
+      <c r="E3">
+        <v>-0.015825</v>
+      </c>
+      <c r="F3">
         <v>-0.021334</v>
-      </c>
-      <c r="E3">
-        <v>-0.014095</v>
-      </c>
-      <c r="F3">
-        <v>-0.003111</v>
       </c>
       <c r="G3">
         <v>-0.011199</v>
       </c>
       <c r="H3">
-        <v>-0.015825</v>
+        <v>-0.01401</v>
       </c>
       <c r="I3">
+        <v>-0.037729</v>
+      </c>
+      <c r="J3">
+        <v>-0.025384</v>
+      </c>
+      <c r="K3">
+        <v>-0.018587</v>
+      </c>
+      <c r="L3">
         <v>0.010287</v>
       </c>
-      <c r="J3">
+      <c r="M3">
+        <v>-0.004353</v>
+      </c>
+      <c r="N3">
+        <v>0.01139</v>
+      </c>
+      <c r="O3">
         <v>0.004645</v>
       </c>
-      <c r="K3">
-        <v>-0.004353</v>
-      </c>
-      <c r="L3">
-        <v>0.01139</v>
-      </c>
-      <c r="M3">
-        <v>-0.01401</v>
-      </c>
-      <c r="N3">
+      <c r="P3">
+        <v>-0.014095</v>
+      </c>
+      <c r="Q3">
+        <v>-0.031305</v>
+      </c>
+      <c r="R3">
         <v>-0.028239</v>
       </c>
-      <c r="O3">
+      <c r="S3">
+        <v>-0.022697</v>
+      </c>
+      <c r="T3">
         <v>-0.004496</v>
       </c>
-      <c r="P3">
-        <v>0.008682</v>
-      </c>
-      <c r="Q3">
-        <v>-0.006189</v>
-      </c>
-      <c r="R3">
-        <v>-0.037729</v>
-      </c>
-      <c r="S3">
-        <v>-0.01895</v>
-      </c>
-      <c r="T3">
-        <v>-0.025384</v>
-      </c>
       <c r="U3">
-        <v>-0.031305</v>
+        <v>-0.021401</v>
       </c>
       <c r="V3">
         <v>-0.006506</v>
       </c>
       <c r="W3">
+        <v>-0.003111</v>
+      </c>
+      <c r="X3">
+        <v>-0.006189</v>
+      </c>
+      <c r="Y3">
         <v>-0.00202</v>
-      </c>
-      <c r="X3">
-        <v>-0.021401</v>
-      </c>
-      <c r="Y3">
-        <v>-0.022697</v>
       </c>
       <c r="Z3" s="2">
         <v>44609</v>
@@ -3399,76 +3399,76 @@
         <v>-3</v>
       </c>
       <c r="B4">
-        <v>-0.036394</v>
+        <v>-0.002743</v>
       </c>
       <c r="C4">
+        <v>-0.025165</v>
+      </c>
+      <c r="D4">
         <v>-0.005527</v>
       </c>
-      <c r="D4">
+      <c r="E4">
+        <v>-0.007595</v>
+      </c>
+      <c r="F4">
         <v>-0.017334</v>
-      </c>
-      <c r="E4">
-        <v>-0.037185</v>
-      </c>
-      <c r="F4">
-        <v>0.002371</v>
       </c>
       <c r="G4">
         <v>0.000131</v>
       </c>
       <c r="H4">
-        <v>-0.007595</v>
+        <v>-0.022136</v>
       </c>
       <c r="I4">
+        <v>-0.004855</v>
+      </c>
+      <c r="J4">
+        <v>-0.031936</v>
+      </c>
+      <c r="K4">
+        <v>-0.036394</v>
+      </c>
+      <c r="L4">
         <v>0.005041</v>
       </c>
-      <c r="J4">
+      <c r="M4">
+        <v>-0.004302</v>
+      </c>
+      <c r="N4">
+        <v>0.0005</v>
+      </c>
+      <c r="O4">
         <v>0.011481</v>
       </c>
-      <c r="K4">
-        <v>-0.004302</v>
-      </c>
-      <c r="L4">
-        <v>0.0005</v>
-      </c>
-      <c r="M4">
-        <v>-0.022136</v>
-      </c>
-      <c r="N4">
+      <c r="P4">
+        <v>-0.037185</v>
+      </c>
+      <c r="Q4">
+        <v>-0.006266</v>
+      </c>
+      <c r="R4">
         <v>-0.005869</v>
       </c>
-      <c r="O4">
+      <c r="S4">
+        <v>0.009896</v>
+      </c>
+      <c r="T4">
         <v>0.00516</v>
       </c>
-      <c r="P4">
-        <v>-0.025165</v>
-      </c>
-      <c r="Q4">
-        <v>-0.006505</v>
-      </c>
-      <c r="R4">
-        <v>-0.004855</v>
-      </c>
-      <c r="S4">
-        <v>-0.002743</v>
-      </c>
-      <c r="T4">
-        <v>-0.031936</v>
-      </c>
       <c r="U4">
-        <v>-0.006266</v>
+        <v>-0.007192</v>
       </c>
       <c r="V4">
         <v>0.011753</v>
       </c>
       <c r="W4">
+        <v>0.002371</v>
+      </c>
+      <c r="X4">
+        <v>-0.006505</v>
+      </c>
+      <c r="Y4">
         <v>-0.021613</v>
-      </c>
-      <c r="X4">
-        <v>-0.007192</v>
-      </c>
-      <c r="Y4">
-        <v>0.009896</v>
       </c>
       <c r="Z4" s="2">
         <v>44610</v>
@@ -3479,76 +3479,76 @@
         <v>-2</v>
       </c>
       <c r="B5">
-        <v>0.001845</v>
+        <v>-0.004922</v>
       </c>
       <c r="C5">
+        <v>-0.010582</v>
+      </c>
+      <c r="D5">
         <v>-0.007151</v>
       </c>
-      <c r="D5">
+      <c r="E5">
+        <v>-0.020821</v>
+      </c>
+      <c r="F5">
         <v>-0.021844</v>
-      </c>
-      <c r="E5">
-        <v>-0.030451</v>
-      </c>
-      <c r="F5">
-        <v>-0.001482</v>
       </c>
       <c r="G5">
         <v>-0.005515</v>
       </c>
       <c r="H5">
-        <v>-0.020821</v>
+        <v>-0.01655</v>
       </c>
       <c r="I5">
+        <v>-0.007995</v>
+      </c>
+      <c r="J5">
+        <v>0.006146</v>
+      </c>
+      <c r="K5">
+        <v>0.001845</v>
+      </c>
+      <c r="L5">
         <v>-0.008838</v>
       </c>
-      <c r="J5">
+      <c r="M5">
+        <v>-0.006665</v>
+      </c>
+      <c r="N5">
+        <v>-0.012397</v>
+      </c>
+      <c r="O5">
         <v>-0.002256</v>
       </c>
-      <c r="K5">
-        <v>-0.006665</v>
-      </c>
-      <c r="L5">
-        <v>-0.012397</v>
-      </c>
-      <c r="M5">
-        <v>-0.01655</v>
-      </c>
-      <c r="N5">
+      <c r="P5">
+        <v>-0.030451</v>
+      </c>
+      <c r="Q5">
+        <v>-0.052196</v>
+      </c>
+      <c r="R5">
         <v>-0.029872</v>
       </c>
-      <c r="O5">
+      <c r="S5">
+        <v>-0.057968</v>
+      </c>
+      <c r="T5">
         <v>-0.020803</v>
       </c>
-      <c r="P5">
-        <v>-0.010582</v>
-      </c>
-      <c r="Q5">
-        <v>0.010567</v>
-      </c>
-      <c r="R5">
-        <v>-0.007995</v>
-      </c>
-      <c r="S5">
-        <v>-0.004922</v>
-      </c>
-      <c r="T5">
-        <v>0.006146</v>
-      </c>
       <c r="U5">
-        <v>-0.052196</v>
+        <v>-0.010195</v>
       </c>
       <c r="V5">
         <v>-0.031504</v>
       </c>
       <c r="W5">
+        <v>-0.001482</v>
+      </c>
+      <c r="X5">
+        <v>0.010567</v>
+      </c>
+      <c r="Y5">
         <v>-0.089188</v>
-      </c>
-      <c r="X5">
-        <v>-0.010195</v>
-      </c>
-      <c r="Y5">
-        <v>-0.057968</v>
       </c>
       <c r="Z5" s="2">
         <v>44614</v>
@@ -3559,76 +3559,76 @@
         <v>-1</v>
       </c>
       <c r="B6">
-        <v>-0.010751</v>
+        <v>-0.003435</v>
       </c>
       <c r="C6">
+        <v>0.001119</v>
+      </c>
+      <c r="D6">
         <v>-0.050706</v>
       </c>
-      <c r="D6">
+      <c r="E6">
+        <v>-0.013983</v>
+      </c>
+      <c r="F6">
         <v>-0.026092</v>
-      </c>
-      <c r="E6">
-        <v>0.002979</v>
-      </c>
-      <c r="F6">
-        <v>0.007091</v>
       </c>
       <c r="G6">
         <v>-0.001449</v>
       </c>
       <c r="H6">
-        <v>-0.013983</v>
+        <v>0.004793</v>
       </c>
       <c r="I6">
+        <v>-0.004022</v>
+      </c>
+      <c r="J6">
+        <v>-0.002215</v>
+      </c>
+      <c r="K6">
+        <v>-0.010751</v>
+      </c>
+      <c r="L6">
         <v>-0.002667</v>
       </c>
-      <c r="J6">
+      <c r="M6">
+        <v>-0.007785</v>
+      </c>
+      <c r="N6">
+        <v>-0.012552</v>
+      </c>
+      <c r="O6">
         <v>-0.006873</v>
       </c>
-      <c r="K6">
-        <v>-0.007785</v>
-      </c>
-      <c r="L6">
-        <v>-0.012552</v>
-      </c>
-      <c r="M6">
-        <v>0.004793</v>
-      </c>
-      <c r="N6">
+      <c r="P6">
+        <v>0.002979</v>
+      </c>
+      <c r="Q6">
+        <v>-0.034296</v>
+      </c>
+      <c r="R6">
         <v>0.021785</v>
       </c>
-      <c r="O6">
+      <c r="S6">
+        <v>-0.007893000000000001</v>
+      </c>
+      <c r="T6">
         <v>-0.028893</v>
       </c>
-      <c r="P6">
-        <v>0.001119</v>
-      </c>
-      <c r="Q6">
-        <v>0.00821</v>
-      </c>
-      <c r="R6">
-        <v>-0.004022</v>
-      </c>
-      <c r="S6">
-        <v>-0.003435</v>
-      </c>
-      <c r="T6">
-        <v>-0.002215</v>
-      </c>
       <c r="U6">
-        <v>-0.034296</v>
+        <v>-0.018584</v>
       </c>
       <c r="V6">
         <v>-0.04859</v>
       </c>
       <c r="W6">
+        <v>0.007091</v>
+      </c>
+      <c r="X6">
+        <v>0.00821</v>
+      </c>
+      <c r="Y6">
         <v>-0.028817</v>
-      </c>
-      <c r="X6">
-        <v>-0.018584</v>
-      </c>
-      <c r="Y6">
-        <v>-0.007893000000000001</v>
       </c>
       <c r="Z6" s="2">
         <v>44615</v>
@@ -3639,76 +3639,76 @@
         <v>0</v>
       </c>
       <c r="B7">
-        <v>0.036354</v>
+        <v>0.019818</v>
       </c>
       <c r="C7">
+        <v>-0.0028</v>
+      </c>
+      <c r="D7">
         <v>0.057065</v>
       </c>
-      <c r="D7">
+      <c r="E7">
+        <v>-0.019606</v>
+      </c>
+      <c r="F7">
         <v>0.018794</v>
-      </c>
-      <c r="E7">
-        <v>0.048816</v>
-      </c>
-      <c r="F7">
-        <v>-0.012294</v>
       </c>
       <c r="G7">
         <v>-0.031204</v>
       </c>
       <c r="H7">
-        <v>-0.019606</v>
+        <v>-0.036386</v>
       </c>
       <c r="I7">
+        <v>-0.014583</v>
+      </c>
+      <c r="J7">
+        <v>0.012459</v>
+      </c>
+      <c r="K7">
+        <v>0.036354</v>
+      </c>
+      <c r="L7">
         <v>-0.039689</v>
       </c>
-      <c r="J7">
+      <c r="M7">
+        <v>-0.011611</v>
+      </c>
+      <c r="N7">
+        <v>-0.027299</v>
+      </c>
+      <c r="O7">
         <v>-0.025874</v>
       </c>
-      <c r="K7">
-        <v>-0.011611</v>
-      </c>
-      <c r="L7">
-        <v>-0.027299</v>
-      </c>
-      <c r="M7">
-        <v>-0.036386</v>
-      </c>
-      <c r="N7">
+      <c r="P7">
+        <v>0.048816</v>
+      </c>
+      <c r="Q7">
+        <v>0.017907</v>
+      </c>
+      <c r="R7">
         <v>-0.049618</v>
       </c>
-      <c r="O7">
+      <c r="S7">
+        <v>0.002878</v>
+      </c>
+      <c r="T7">
         <v>-0.023123</v>
       </c>
-      <c r="P7">
-        <v>-0.0028</v>
-      </c>
-      <c r="Q7">
-        <v>-0.010204</v>
-      </c>
-      <c r="R7">
-        <v>-0.014583</v>
-      </c>
-      <c r="S7">
-        <v>0.019818</v>
-      </c>
-      <c r="T7">
-        <v>0.012459</v>
-      </c>
       <c r="U7">
-        <v>0.017907</v>
+        <v>0.014846</v>
       </c>
       <c r="V7">
         <v>0.037393</v>
       </c>
       <c r="W7">
+        <v>-0.012294</v>
+      </c>
+      <c r="X7">
+        <v>-0.010204</v>
+      </c>
+      <c r="Y7">
         <v>-0.037919</v>
-      </c>
-      <c r="X7">
-        <v>0.014846</v>
-      </c>
-      <c r="Y7">
-        <v>0.002878</v>
       </c>
       <c r="Z7" s="2">
         <v>44616</v>
@@ -3719,76 +3719,76 @@
         <v>1</v>
       </c>
       <c r="B8">
-        <v>0.010843</v>
+        <v>0.031465</v>
       </c>
       <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
         <v>0.014162</v>
       </c>
-      <c r="D8">
+      <c r="E8">
+        <v>0.037579</v>
+      </c>
+      <c r="F8">
         <v>0.030869</v>
-      </c>
-      <c r="E8">
-        <v>0.008207000000000001</v>
-      </c>
-      <c r="F8">
-        <v>0.02502</v>
       </c>
       <c r="G8">
         <v>0.037514</v>
       </c>
       <c r="H8">
-        <v>0.037579</v>
+        <v>0.029062</v>
       </c>
       <c r="I8">
+        <v>0.043562</v>
+      </c>
+      <c r="J8">
+        <v>0.030608</v>
+      </c>
+      <c r="K8">
+        <v>0.010843</v>
+      </c>
+      <c r="L8">
         <v>0.03331</v>
       </c>
-      <c r="J8">
+      <c r="M8">
+        <v>0.029025</v>
+      </c>
+      <c r="N8">
+        <v>0.041813</v>
+      </c>
+      <c r="O8">
         <v>0.024888</v>
       </c>
-      <c r="K8">
-        <v>0.029025</v>
-      </c>
-      <c r="L8">
-        <v>0.041813</v>
-      </c>
-      <c r="M8">
-        <v>0.029062</v>
-      </c>
-      <c r="N8">
+      <c r="P8">
+        <v>0.008207000000000001</v>
+      </c>
+      <c r="Q8">
+        <v>0.022989</v>
+      </c>
+      <c r="R8">
         <v>0.036098</v>
       </c>
-      <c r="O8">
+      <c r="S8">
+        <v>0.035703</v>
+      </c>
+      <c r="T8">
         <v>0.041964</v>
       </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0.02897</v>
-      </c>
-      <c r="R8">
-        <v>0.043562</v>
-      </c>
-      <c r="S8">
-        <v>0.031465</v>
-      </c>
-      <c r="T8">
-        <v>0.030608</v>
-      </c>
       <c r="U8">
-        <v>0.022989</v>
+        <v>0.022126</v>
       </c>
       <c r="V8">
         <v>0.02967</v>
       </c>
       <c r="W8">
+        <v>0.02502</v>
+      </c>
+      <c r="X8">
+        <v>0.02897</v>
+      </c>
+      <c r="Y8">
         <v>-0.04337</v>
-      </c>
-      <c r="X8">
-        <v>0.022126</v>
-      </c>
-      <c r="Y8">
-        <v>0.035703</v>
       </c>
       <c r="Z8" s="2">
         <v>44617</v>
@@ -3799,76 +3799,76 @@
         <v>2</v>
       </c>
       <c r="B9">
-        <v>-0.005347</v>
+        <v>-0.003594</v>
       </c>
       <c r="C9">
+        <v>-0.016969</v>
+      </c>
+      <c r="D9">
         <v>0.014735</v>
       </c>
-      <c r="D9">
+      <c r="E9">
+        <v>-0.01648</v>
+      </c>
+      <c r="F9">
         <v>-0.012086</v>
-      </c>
-      <c r="E9">
-        <v>0.019978</v>
-      </c>
-      <c r="F9">
-        <v>-0.001891</v>
       </c>
       <c r="G9">
         <v>0.003401</v>
       </c>
       <c r="H9">
-        <v>-0.01648</v>
+        <v>-0.005337</v>
       </c>
       <c r="I9">
+        <v>-0.017995</v>
+      </c>
+      <c r="J9">
+        <v>-0.014731</v>
+      </c>
+      <c r="K9">
+        <v>-0.005347</v>
+      </c>
+      <c r="L9">
         <v>-0.015346</v>
       </c>
-      <c r="J9">
+      <c r="M9">
+        <v>0.004289</v>
+      </c>
+      <c r="N9">
+        <v>-0.014962</v>
+      </c>
+      <c r="O9">
         <v>-0.012674</v>
       </c>
-      <c r="K9">
-        <v>0.004289</v>
-      </c>
-      <c r="L9">
-        <v>-0.014962</v>
-      </c>
-      <c r="M9">
-        <v>-0.005337</v>
-      </c>
-      <c r="N9">
+      <c r="P9">
+        <v>0.019978</v>
+      </c>
+      <c r="Q9">
+        <v>-0.011429</v>
+      </c>
+      <c r="R9">
         <v>-0.028578</v>
       </c>
-      <c r="O9">
+      <c r="S9">
+        <v>-0.024488</v>
+      </c>
+      <c r="T9">
         <v>-0.015705</v>
       </c>
-      <c r="P9">
-        <v>-0.016969</v>
-      </c>
-      <c r="Q9">
-        <v>-0.011907</v>
-      </c>
-      <c r="R9">
-        <v>-0.017995</v>
-      </c>
-      <c r="S9">
-        <v>-0.003594</v>
-      </c>
-      <c r="T9">
-        <v>-0.014731</v>
-      </c>
       <c r="U9">
-        <v>-0.011429</v>
+        <v>-0.002446</v>
       </c>
       <c r="V9">
         <v>0.005173</v>
       </c>
       <c r="W9">
+        <v>-0.001891</v>
+      </c>
+      <c r="X9">
+        <v>-0.011907</v>
+      </c>
+      <c r="Y9">
         <v>0.023153</v>
-      </c>
-      <c r="X9">
-        <v>-0.002446</v>
-      </c>
-      <c r="Y9">
-        <v>-0.024488</v>
       </c>
       <c r="Z9" s="2">
         <v>44620</v>
@@ -3879,76 +3879,76 @@
         <v>3</v>
       </c>
       <c r="B10">
-        <v>-0.059397</v>
+        <v>-0.001802</v>
       </c>
       <c r="C10">
+        <v>-0.0366</v>
+      </c>
+      <c r="D10">
         <v>-0.006178</v>
       </c>
-      <c r="D10">
+      <c r="E10">
+        <v>-0.025678</v>
+      </c>
+      <c r="F10">
         <v>-0.045983</v>
-      </c>
-      <c r="E10">
-        <v>-0.054012</v>
-      </c>
-      <c r="F10">
-        <v>-0.000583</v>
       </c>
       <c r="G10">
         <v>-0.003139</v>
       </c>
       <c r="H10">
-        <v>-0.025678</v>
+        <v>-0.040833</v>
       </c>
       <c r="I10">
+        <v>-0.018926</v>
+      </c>
+      <c r="J10">
+        <v>-0.020521</v>
+      </c>
+      <c r="K10">
+        <v>-0.059397</v>
+      </c>
+      <c r="L10">
         <v>-0.011896</v>
       </c>
-      <c r="J10">
+      <c r="M10">
+        <v>-0.003937</v>
+      </c>
+      <c r="N10">
+        <v>-0.016689</v>
+      </c>
+      <c r="O10">
         <v>-0.011437</v>
       </c>
-      <c r="K10">
-        <v>-0.003937</v>
-      </c>
-      <c r="L10">
-        <v>-0.016689</v>
-      </c>
-      <c r="M10">
-        <v>-0.040833</v>
-      </c>
-      <c r="N10">
+      <c r="P10">
+        <v>-0.054012</v>
+      </c>
+      <c r="Q10">
+        <v>-0.050243</v>
+      </c>
+      <c r="R10">
         <v>-0.090631</v>
       </c>
-      <c r="O10">
+      <c r="S10">
+        <v>-0.02678</v>
+      </c>
+      <c r="T10">
         <v>-0.057455</v>
       </c>
-      <c r="P10">
-        <v>-0.0366</v>
-      </c>
-      <c r="Q10">
-        <v>-0.0005419999999999999</v>
-      </c>
-      <c r="R10">
-        <v>-0.018926</v>
-      </c>
-      <c r="S10">
-        <v>-0.001802</v>
-      </c>
-      <c r="T10">
-        <v>-0.020521</v>
-      </c>
       <c r="U10">
-        <v>-0.050243</v>
+        <v>-0.015594</v>
       </c>
       <c r="V10">
         <v>0</v>
       </c>
       <c r="W10">
+        <v>-0.000583</v>
+      </c>
+      <c r="X10">
+        <v>-0.0005419999999999999</v>
+      </c>
+      <c r="Y10">
         <v>-0.010975</v>
-      </c>
-      <c r="X10">
-        <v>-0.015594</v>
-      </c>
-      <c r="Y10">
-        <v>-0.02678</v>
       </c>
       <c r="Z10" s="2">
         <v>44621</v>
@@ -3959,76 +3959,76 @@
         <v>4</v>
       </c>
       <c r="B11">
-        <v>0.000885</v>
+        <v>0.018544</v>
       </c>
       <c r="C11">
+        <v>0.030305</v>
+      </c>
+      <c r="D11">
         <v>-0.033074</v>
       </c>
-      <c r="D11">
+      <c r="E11">
+        <v>0.04174</v>
+      </c>
+      <c r="F11">
         <v>0.025967</v>
-      </c>
-      <c r="E11">
-        <v>-0.012499</v>
-      </c>
-      <c r="F11">
-        <v>0.0032</v>
       </c>
       <c r="G11">
         <v>0.004313</v>
       </c>
       <c r="H11">
-        <v>0.04174</v>
+        <v>0.040833</v>
       </c>
       <c r="I11">
+        <v>0.039961</v>
+      </c>
+      <c r="J11">
+        <v>0.018363</v>
+      </c>
+      <c r="K11">
+        <v>0.000885</v>
+      </c>
+      <c r="L11">
         <v>0.008642</v>
       </c>
-      <c r="J11">
+      <c r="M11">
+        <v>0.007229</v>
+      </c>
+      <c r="N11">
+        <v>0.003126</v>
+      </c>
+      <c r="O11">
         <v>0.008898</v>
       </c>
-      <c r="K11">
-        <v>0.007229</v>
-      </c>
-      <c r="L11">
-        <v>0.003126</v>
-      </c>
-      <c r="M11">
-        <v>0.040833</v>
-      </c>
-      <c r="N11">
+      <c r="P11">
+        <v>-0.012499</v>
+      </c>
+      <c r="Q11">
+        <v>0.060475</v>
+      </c>
+      <c r="R11">
         <v>-0.003573</v>
       </c>
-      <c r="O11">
+      <c r="S11">
+        <v>0.041446</v>
+      </c>
+      <c r="T11">
         <v>0.043266</v>
       </c>
-      <c r="P11">
-        <v>0.030305</v>
-      </c>
-      <c r="Q11">
-        <v>0.012649</v>
-      </c>
-      <c r="R11">
-        <v>0.039961</v>
-      </c>
-      <c r="S11">
-        <v>0.018544</v>
-      </c>
-      <c r="T11">
-        <v>0.018363</v>
-      </c>
       <c r="U11">
-        <v>0.060475</v>
+        <v>0.018471</v>
       </c>
       <c r="V11">
         <v>-0.020949</v>
       </c>
       <c r="W11">
+        <v>0.0032</v>
+      </c>
+      <c r="X11">
+        <v>0.012649</v>
+      </c>
+      <c r="Y11">
         <v>0.027389</v>
-      </c>
-      <c r="X11">
-        <v>0.018471</v>
-      </c>
-      <c r="Y11">
-        <v>0.041446</v>
       </c>
       <c r="Z11" s="2">
         <v>44622</v>
@@ -4039,76 +4039,76 @@
         <v>5</v>
       </c>
       <c r="B12">
-        <v>-0.019388</v>
+        <v>0.017434</v>
       </c>
       <c r="C12">
+        <v>-0.006335</v>
+      </c>
+      <c r="D12">
         <v>-0.029247</v>
       </c>
-      <c r="D12">
+      <c r="E12">
+        <v>0.002722</v>
+      </c>
+      <c r="F12">
         <v>-0.027093</v>
-      </c>
-      <c r="E12">
-        <v>-0.046839</v>
-      </c>
-      <c r="F12">
-        <v>0.003769</v>
       </c>
       <c r="G12">
         <v>0.006241</v>
       </c>
       <c r="H12">
-        <v>0.002722</v>
+        <v>-0.018519</v>
       </c>
       <c r="I12">
+        <v>-0.07159799999999999</v>
+      </c>
+      <c r="J12">
+        <v>0.005055</v>
+      </c>
+      <c r="K12">
+        <v>-0.019388</v>
+      </c>
+      <c r="L12">
         <v>0.009084999999999999</v>
       </c>
-      <c r="J12">
+      <c r="M12">
+        <v>0.017125</v>
+      </c>
+      <c r="N12">
+        <v>0.0037</v>
+      </c>
+      <c r="O12">
         <v>-0.002082</v>
       </c>
-      <c r="K12">
-        <v>0.017125</v>
-      </c>
-      <c r="L12">
-        <v>0.0037</v>
-      </c>
-      <c r="M12">
-        <v>-0.018519</v>
-      </c>
-      <c r="N12">
+      <c r="P12">
+        <v>-0.046839</v>
+      </c>
+      <c r="Q12">
+        <v>0.019568</v>
+      </c>
+      <c r="R12">
         <v>-0.003586</v>
       </c>
-      <c r="O12">
+      <c r="S12">
+        <v>-0.021223</v>
+      </c>
+      <c r="T12">
         <v>0.034337</v>
       </c>
-      <c r="P12">
-        <v>-0.006335</v>
-      </c>
-      <c r="Q12">
-        <v>0.0056</v>
-      </c>
-      <c r="R12">
-        <v>-0.07159799999999999</v>
-      </c>
-      <c r="S12">
-        <v>0.017434</v>
-      </c>
-      <c r="T12">
-        <v>0.005055</v>
-      </c>
       <c r="U12">
-        <v>0.019568</v>
+        <v>-0.005269</v>
       </c>
       <c r="V12">
         <v>-0.049846</v>
       </c>
       <c r="W12">
+        <v>0.003769</v>
+      </c>
+      <c r="X12">
+        <v>0.0056</v>
+      </c>
+      <c r="Y12">
         <v>0.05983</v>
-      </c>
-      <c r="X12">
-        <v>-0.005269</v>
-      </c>
-      <c r="Y12">
-        <v>-0.021223</v>
       </c>
       <c r="Z12" s="2">
         <v>44623</v>
@@ -4119,76 +4119,76 @@
         <v>6</v>
       </c>
       <c r="B13">
-        <v>-0.045453</v>
+        <v>0.016222</v>
       </c>
       <c r="C13">
+        <v>-0.037074</v>
+      </c>
+      <c r="D13">
         <v>-0.023354</v>
       </c>
-      <c r="D13">
+      <c r="E13">
+        <v>0.016999</v>
+      </c>
+      <c r="F13">
         <v>-0.031038</v>
-      </c>
-      <c r="E13">
-        <v>-0.074798</v>
-      </c>
-      <c r="F13">
-        <v>0.003611</v>
       </c>
       <c r="G13">
         <v>0.008775</v>
       </c>
       <c r="H13">
-        <v>0.016999</v>
+        <v>0.010844</v>
       </c>
       <c r="I13">
+        <v>-0.166179</v>
+      </c>
+      <c r="J13">
+        <v>0.003631</v>
+      </c>
+      <c r="K13">
+        <v>-0.045453</v>
+      </c>
+      <c r="L13">
         <v>-0.000517</v>
       </c>
-      <c r="J13">
+      <c r="M13">
+        <v>0.012501</v>
+      </c>
+      <c r="N13">
+        <v>0.00504</v>
+      </c>
+      <c r="O13">
         <v>-0.003247</v>
       </c>
-      <c r="K13">
-        <v>0.012501</v>
-      </c>
-      <c r="L13">
-        <v>0.00504</v>
-      </c>
-      <c r="M13">
-        <v>0.010844</v>
-      </c>
-      <c r="N13">
+      <c r="P13">
+        <v>-0.074798</v>
+      </c>
+      <c r="Q13">
+        <v>-0.064265</v>
+      </c>
+      <c r="R13">
         <v>-0.02694</v>
       </c>
-      <c r="O13">
+      <c r="S13">
+        <v>-0.018109</v>
+      </c>
+      <c r="T13">
         <v>0.025748</v>
       </c>
-      <c r="P13">
-        <v>-0.037074</v>
-      </c>
-      <c r="Q13">
-        <v>0.0009970000000000001</v>
-      </c>
-      <c r="R13">
-        <v>-0.166179</v>
-      </c>
-      <c r="S13">
-        <v>0.016222</v>
-      </c>
-      <c r="T13">
-        <v>0.003631</v>
-      </c>
       <c r="U13">
-        <v>-0.064265</v>
+        <v>-0.007966000000000001</v>
       </c>
       <c r="V13">
         <v>0.027048</v>
       </c>
       <c r="W13">
+        <v>0.003611</v>
+      </c>
+      <c r="X13">
+        <v>0.0009970000000000001</v>
+      </c>
+      <c r="Y13">
         <v>0.042165</v>
-      </c>
-      <c r="X13">
-        <v>-0.007966000000000001</v>
-      </c>
-      <c r="Y13">
-        <v>-0.018109</v>
       </c>
       <c r="Z13" s="2">
         <v>44624</v>
@@ -4199,76 +4199,76 @@
         <v>7</v>
       </c>
       <c r="B14">
-        <v>-0.143381</v>
+        <v>-0.00469</v>
       </c>
       <c r="C14">
+        <v>-0.0005999999999999999</v>
+      </c>
+      <c r="D14">
         <v>0.000843</v>
       </c>
-      <c r="D14">
+      <c r="E14">
+        <v>-0.013868</v>
+      </c>
+      <c r="F14">
         <v>-0.06435</v>
-      </c>
-      <c r="E14">
-        <v>-0.090727</v>
-      </c>
-      <c r="F14">
-        <v>-0.008543</v>
       </c>
       <c r="G14">
         <v>-0.001286</v>
       </c>
       <c r="H14">
-        <v>-0.013868</v>
+        <v>0.078026</v>
       </c>
       <c r="I14">
+        <v>-0.166821</v>
+      </c>
+      <c r="J14">
+        <v>-0.021227</v>
+      </c>
+      <c r="K14">
+        <v>-0.143381</v>
+      </c>
+      <c r="L14">
         <v>-0.008829</v>
       </c>
-      <c r="J14">
+      <c r="M14">
+        <v>-0.016842</v>
+      </c>
+      <c r="N14">
+        <v>-0.014936</v>
+      </c>
+      <c r="O14">
         <v>-0.009258000000000001</v>
       </c>
-      <c r="K14">
-        <v>-0.016842</v>
-      </c>
-      <c r="L14">
-        <v>-0.014936</v>
-      </c>
-      <c r="M14">
-        <v>0.078026</v>
-      </c>
-      <c r="N14">
+      <c r="P14">
+        <v>-0.090727</v>
+      </c>
+      <c r="Q14">
+        <v>-0.078791</v>
+      </c>
+      <c r="R14">
         <v>-0.095975</v>
       </c>
-      <c r="O14">
+      <c r="S14">
+        <v>-0.104188</v>
+      </c>
+      <c r="T14">
         <v>-0.055332</v>
       </c>
-      <c r="P14">
-        <v>-0.0005999999999999999</v>
-      </c>
-      <c r="Q14">
-        <v>-0.0074</v>
-      </c>
-      <c r="R14">
-        <v>-0.166821</v>
-      </c>
-      <c r="S14">
-        <v>-0.00469</v>
-      </c>
-      <c r="T14">
-        <v>-0.021227</v>
-      </c>
       <c r="U14">
-        <v>-0.078791</v>
+        <v>-0.029963</v>
       </c>
       <c r="V14">
         <v>-0.033526</v>
       </c>
       <c r="W14">
+        <v>-0.008543</v>
+      </c>
+      <c r="X14">
+        <v>-0.0074</v>
+      </c>
+      <c r="Y14">
         <v>0.035641</v>
-      </c>
-      <c r="X14">
-        <v>-0.029963</v>
-      </c>
-      <c r="Y14">
-        <v>-0.104188</v>
       </c>
       <c r="Z14" s="2">
         <v>44627</v>
@@ -4279,76 +4279,76 @@
         <v>8</v>
       </c>
       <c r="B15">
-        <v>0.056259</v>
+        <v>-0.006557</v>
       </c>
       <c r="C15">
+        <v>0.008363000000000001</v>
+      </c>
+      <c r="D15">
         <v>0.035615</v>
       </c>
-      <c r="D15">
+      <c r="E15">
+        <v>-0.011319</v>
+      </c>
+      <c r="F15">
         <v>0.036733</v>
-      </c>
-      <c r="E15">
-        <v>0.032555</v>
-      </c>
-      <c r="F15">
-        <v>-0.015091</v>
       </c>
       <c r="G15">
         <v>-0.010086</v>
       </c>
       <c r="H15">
-        <v>-0.011319</v>
+        <v>0.06839099999999999</v>
       </c>
       <c r="I15">
+        <v>0.009272000000000001</v>
+      </c>
+      <c r="J15">
+        <v>-0.023408</v>
+      </c>
+      <c r="K15">
+        <v>0.056259</v>
+      </c>
+      <c r="L15">
         <v>-0.023888</v>
       </c>
-      <c r="J15">
+      <c r="M15">
+        <v>-0.002973</v>
+      </c>
+      <c r="N15">
+        <v>-0.040389</v>
+      </c>
+      <c r="O15">
         <v>-0.037834</v>
       </c>
-      <c r="K15">
-        <v>-0.002973</v>
-      </c>
-      <c r="L15">
-        <v>-0.040389</v>
-      </c>
-      <c r="M15">
-        <v>0.06839099999999999</v>
-      </c>
-      <c r="N15">
+      <c r="P15">
+        <v>0.032555</v>
+      </c>
+      <c r="Q15">
+        <v>0.05214</v>
+      </c>
+      <c r="R15">
         <v>-0.041465</v>
       </c>
-      <c r="O15">
+      <c r="S15">
+        <v>0.036183</v>
+      </c>
+      <c r="T15">
         <v>-0.023631</v>
       </c>
-      <c r="P15">
-        <v>0.008363000000000001</v>
-      </c>
-      <c r="Q15">
-        <v>-0.015509</v>
-      </c>
-      <c r="R15">
-        <v>0.009272000000000001</v>
-      </c>
-      <c r="S15">
-        <v>-0.006557</v>
-      </c>
-      <c r="T15">
-        <v>-0.023408</v>
-      </c>
       <c r="U15">
-        <v>0.05214</v>
+        <v>-0.00726</v>
       </c>
       <c r="V15">
         <v>-0.017448</v>
       </c>
       <c r="W15">
+        <v>-0.015091</v>
+      </c>
+      <c r="X15">
+        <v>-0.015509</v>
+      </c>
+      <c r="Y15">
         <v>0.009313</v>
-      </c>
-      <c r="X15">
-        <v>-0.00726</v>
-      </c>
-      <c r="Y15">
-        <v>0.036183</v>
       </c>
       <c r="Z15" s="2">
         <v>44628</v>
@@ -4359,76 +4359,76 @@
         <v>9</v>
       </c>
       <c r="B16">
-        <v>0.051308</v>
+        <v>0.010943</v>
       </c>
       <c r="C16">
+        <v>-0.024693</v>
+      </c>
+      <c r="D16">
         <v>0.054624</v>
       </c>
-      <c r="D16">
+      <c r="E16">
+        <v>0.027239</v>
+      </c>
+      <c r="F16">
         <v>0.033772</v>
-      </c>
-      <c r="E16">
-        <v>0.075845</v>
-      </c>
-      <c r="F16">
-        <v>0.005741</v>
       </c>
       <c r="G16">
         <v>0.010857</v>
       </c>
       <c r="H16">
-        <v>0.027239</v>
+        <v>-0.057524</v>
       </c>
       <c r="I16">
+        <v>0.078407</v>
+      </c>
+      <c r="J16">
+        <v>0.019446</v>
+      </c>
+      <c r="K16">
+        <v>0.051308</v>
+      </c>
+      <c r="L16">
         <v>0.008909</v>
       </c>
-      <c r="J16">
+      <c r="M16">
+        <v>0.009785</v>
+      </c>
+      <c r="N16">
+        <v>0.013399</v>
+      </c>
+      <c r="O16">
         <v>0.002999</v>
       </c>
-      <c r="K16">
-        <v>0.009785</v>
-      </c>
-      <c r="L16">
-        <v>0.013399</v>
-      </c>
-      <c r="M16">
-        <v>-0.057524</v>
-      </c>
-      <c r="N16">
+      <c r="P16">
+        <v>0.075845</v>
+      </c>
+      <c r="Q16">
+        <v>0.050779</v>
+      </c>
+      <c r="R16">
         <v>0.046328</v>
       </c>
-      <c r="O16">
+      <c r="S16">
+        <v>0.064431</v>
+      </c>
+      <c r="T16">
         <v>0.044827</v>
       </c>
-      <c r="P16">
-        <v>-0.024693</v>
-      </c>
-      <c r="Q16">
-        <v>0.011419</v>
-      </c>
-      <c r="R16">
-        <v>0.078407</v>
-      </c>
-      <c r="S16">
-        <v>0.010943</v>
-      </c>
-      <c r="T16">
-        <v>0.019446</v>
-      </c>
       <c r="U16">
-        <v>0.050779</v>
+        <v>0.025374</v>
       </c>
       <c r="V16">
         <v>0.010224</v>
       </c>
       <c r="W16">
+        <v>0.005741</v>
+      </c>
+      <c r="X16">
+        <v>0.011419</v>
+      </c>
+      <c r="Y16">
         <v>0.010116</v>
-      </c>
-      <c r="X16">
-        <v>0.025374</v>
-      </c>
-      <c r="Y16">
-        <v>0.064431</v>
       </c>
       <c r="Z16" s="2">
         <v>44629</v>
@@ -4439,76 +4439,76 @@
         <v>10</v>
       </c>
       <c r="B17">
-        <v>-0.054696</v>
+        <v>0.012216</v>
       </c>
       <c r="C17">
+        <v>0.040627</v>
+      </c>
+      <c r="D17">
         <v>-0.060336</v>
       </c>
-      <c r="D17">
+      <c r="E17">
+        <v>0.009188</v>
+      </c>
+      <c r="F17">
         <v>0.03141</v>
-      </c>
-      <c r="E17">
-        <v>-0.059326</v>
-      </c>
-      <c r="F17">
-        <v>0.004248</v>
       </c>
       <c r="G17">
         <v>0.001285</v>
       </c>
       <c r="H17">
-        <v>0.009188</v>
+        <v>0.019545</v>
       </c>
       <c r="I17">
+        <v>-0.003778</v>
+      </c>
+      <c r="J17">
+        <v>-0.01181</v>
+      </c>
+      <c r="K17">
+        <v>-0.054696</v>
+      </c>
+      <c r="L17">
         <v>-0.022762</v>
       </c>
-      <c r="J17">
+      <c r="M17">
+        <v>0.002329</v>
+      </c>
+      <c r="N17">
+        <v>-0.026082</v>
+      </c>
+      <c r="O17">
         <v>-0.030987</v>
       </c>
-      <c r="K17">
-        <v>0.002329</v>
-      </c>
-      <c r="L17">
-        <v>-0.026082</v>
-      </c>
-      <c r="M17">
-        <v>0.019545</v>
-      </c>
-      <c r="N17">
+      <c r="P17">
+        <v>-0.059326</v>
+      </c>
+      <c r="Q17">
+        <v>-0.006746</v>
+      </c>
+      <c r="R17">
         <v>-0.002428</v>
       </c>
-      <c r="O17">
+      <c r="S17">
+        <v>-0.030416</v>
+      </c>
+      <c r="T17">
         <v>0.01332</v>
       </c>
-      <c r="P17">
-        <v>0.040627</v>
-      </c>
-      <c r="Q17">
-        <v>0.002215</v>
-      </c>
-      <c r="R17">
-        <v>-0.003778</v>
-      </c>
-      <c r="S17">
-        <v>0.012216</v>
-      </c>
-      <c r="T17">
-        <v>-0.01181</v>
-      </c>
       <c r="U17">
-        <v>-0.006746</v>
+        <v>-0.004301</v>
       </c>
       <c r="V17">
         <v>-0.010249</v>
       </c>
       <c r="W17">
+        <v>0.004248</v>
+      </c>
+      <c r="X17">
+        <v>0.002215</v>
+      </c>
+      <c r="Y17">
         <v>0.058358</v>
-      </c>
-      <c r="X17">
-        <v>-0.004301</v>
-      </c>
-      <c r="Y17">
-        <v>-0.030416</v>
       </c>
       <c r="Z17" s="2">
         <v>44630</v>
@@ -4535,76 +4535,76 @@
         <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>29</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>34</v>
@@ -7198,76 +7198,76 @@
         <v>-35</v>
       </c>
       <c r="B2">
-        <v>0.00491</v>
+        <v>-0.018272</v>
       </c>
       <c r="C2">
+        <v>0.010599</v>
+      </c>
+      <c r="D2">
         <v>-0.072432</v>
       </c>
-      <c r="D2">
+      <c r="E2">
+        <v>-0.038141</v>
+      </c>
+      <c r="F2">
         <v>0.009535</v>
-      </c>
-      <c r="E2">
-        <v>-0.056515</v>
-      </c>
-      <c r="F2">
-        <v>0.004032</v>
       </c>
       <c r="G2">
         <v>0.00182</v>
       </c>
       <c r="H2">
-        <v>-0.038141</v>
+        <v>0.047408</v>
       </c>
       <c r="I2">
+        <v>0.016817</v>
+      </c>
+      <c r="J2">
+        <v>-0.023799</v>
+      </c>
+      <c r="K2">
+        <v>0.00491</v>
+      </c>
+      <c r="L2">
         <v>0.003305</v>
       </c>
-      <c r="J2">
+      <c r="M2">
+        <v>-0.009546000000000001</v>
+      </c>
+      <c r="N2">
+        <v>0.003493</v>
+      </c>
+      <c r="O2">
         <v>0.005392</v>
       </c>
-      <c r="K2">
-        <v>-0.009546000000000001</v>
-      </c>
-      <c r="L2">
-        <v>0.003493</v>
-      </c>
-      <c r="M2">
-        <v>0.047408</v>
-      </c>
-      <c r="N2">
+      <c r="P2">
+        <v>-0.056515</v>
+      </c>
+      <c r="Q2">
+        <v>0.03811</v>
+      </c>
+      <c r="R2">
         <v>0.009379</v>
       </c>
-      <c r="O2">
+      <c r="S2">
+        <v>0.022998</v>
+      </c>
+      <c r="T2">
         <v>0.004843</v>
       </c>
-      <c r="P2">
-        <v>0.010599</v>
-      </c>
-      <c r="Q2">
-        <v>-0.001922</v>
-      </c>
-      <c r="R2">
-        <v>0.016817</v>
-      </c>
-      <c r="S2">
-        <v>-0.018272</v>
-      </c>
-      <c r="T2">
-        <v>-0.023799</v>
-      </c>
       <c r="U2">
-        <v>0.03811</v>
+        <v>-0.00063</v>
       </c>
       <c r="V2">
         <v>-0.032966</v>
       </c>
       <c r="W2">
+        <v>0.004032</v>
+      </c>
+      <c r="X2">
+        <v>-0.001922</v>
+      </c>
+      <c r="Y2">
         <v>-0.037979</v>
-      </c>
-      <c r="X2">
-        <v>-0.00063</v>
-      </c>
-      <c r="Y2">
-        <v>0.022998</v>
       </c>
       <c r="Z2" s="2">
         <v>44565</v>
@@ -7278,76 +7278,76 @@
         <v>-34</v>
       </c>
       <c r="B3">
-        <v>-0.054909</v>
+        <v>-0.023358</v>
       </c>
       <c r="C3">
+        <v>-0.02617</v>
+      </c>
+      <c r="D3">
         <v>-0.077442</v>
       </c>
-      <c r="D3">
+      <c r="E3">
+        <v>0.019972</v>
+      </c>
+      <c r="F3">
         <v>-0.027036</v>
-      </c>
-      <c r="E3">
-        <v>-0.06328300000000001</v>
-      </c>
-      <c r="F3">
-        <v>0.000483</v>
       </c>
       <c r="G3">
         <v>0.023992</v>
       </c>
       <c r="H3">
-        <v>0.019972</v>
+        <v>0</v>
       </c>
       <c r="I3">
+        <v>-0.027627</v>
+      </c>
+      <c r="J3">
+        <v>-0.004503</v>
+      </c>
+      <c r="K3">
+        <v>-0.054909</v>
+      </c>
+      <c r="L3">
         <v>0.004115</v>
       </c>
-      <c r="J3">
+      <c r="M3">
+        <v>0.008640999999999999</v>
+      </c>
+      <c r="N3">
+        <v>0.004517</v>
+      </c>
+      <c r="O3">
         <v>0.005988</v>
       </c>
-      <c r="K3">
-        <v>0.008640999999999999</v>
-      </c>
-      <c r="L3">
-        <v>0.004517</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
+      <c r="P3">
+        <v>-0.06328300000000001</v>
+      </c>
+      <c r="Q3">
+        <v>-0.036012</v>
+      </c>
+      <c r="R3">
         <v>0.010736</v>
       </c>
-      <c r="O3">
+      <c r="S3">
+        <v>-0.031459</v>
+      </c>
+      <c r="T3">
         <v>0.00482</v>
       </c>
-      <c r="P3">
-        <v>-0.02617</v>
-      </c>
-      <c r="Q3">
-        <v>0.005239</v>
-      </c>
-      <c r="R3">
-        <v>-0.027627</v>
-      </c>
-      <c r="S3">
-        <v>-0.023358</v>
-      </c>
-      <c r="T3">
-        <v>-0.004503</v>
-      </c>
       <c r="U3">
-        <v>-0.036012</v>
+        <v>-0.019583</v>
       </c>
       <c r="V3">
         <v>-0.027942</v>
       </c>
       <c r="W3">
+        <v>0.000483</v>
+      </c>
+      <c r="X3">
+        <v>0.005239</v>
+      </c>
+      <c r="Y3">
         <v>-0.02174</v>
-      </c>
-      <c r="X3">
-        <v>-0.019583</v>
-      </c>
-      <c r="Y3">
-        <v>-0.031459</v>
       </c>
       <c r="Z3" s="2">
         <v>44566</v>
@@ -7358,76 +7358,76 @@
         <v>-33</v>
       </c>
       <c r="B4">
-        <v>-0.008384000000000001</v>
+        <v>-0.005077</v>
       </c>
       <c r="C4">
+        <v>0.0113</v>
+      </c>
+      <c r="D4">
         <v>0.012262</v>
       </c>
-      <c r="D4">
+      <c r="E4">
+        <v>-0.014303</v>
+      </c>
+      <c r="F4">
         <v>0.0025</v>
-      </c>
-      <c r="E4">
-        <v>0.008433</v>
-      </c>
-      <c r="F4">
-        <v>-0.011</v>
       </c>
       <c r="G4">
         <v>-0.000634</v>
       </c>
       <c r="H4">
-        <v>-0.014303</v>
+        <v>0.023475</v>
       </c>
       <c r="I4">
+        <v>0.004124</v>
+      </c>
+      <c r="J4">
+        <v>-0.000148</v>
+      </c>
+      <c r="K4">
+        <v>-0.008384000000000001</v>
+      </c>
+      <c r="L4">
         <v>-0.006593</v>
       </c>
-      <c r="J4">
+      <c r="M4">
+        <v>-0.015593</v>
+      </c>
+      <c r="N4">
+        <v>-0.008439</v>
+      </c>
+      <c r="O4">
         <v>-0.006546</v>
       </c>
-      <c r="K4">
-        <v>-0.015593</v>
-      </c>
-      <c r="L4">
-        <v>-0.008439</v>
-      </c>
-      <c r="M4">
-        <v>0.023475</v>
-      </c>
-      <c r="N4">
+      <c r="P4">
+        <v>0.008433</v>
+      </c>
+      <c r="Q4">
+        <v>0.02125</v>
+      </c>
+      <c r="R4">
         <v>-0.001444</v>
       </c>
-      <c r="O4">
+      <c r="S4">
+        <v>-0.010747</v>
+      </c>
+      <c r="T4">
         <v>-0.008659999999999999</v>
       </c>
-      <c r="P4">
-        <v>0.0113</v>
-      </c>
-      <c r="Q4">
-        <v>-0.004722</v>
-      </c>
-      <c r="R4">
-        <v>0.004124</v>
-      </c>
-      <c r="S4">
-        <v>-0.005077</v>
-      </c>
-      <c r="T4">
-        <v>-0.000148</v>
-      </c>
       <c r="U4">
-        <v>0.02125</v>
+        <v>-0.000964</v>
       </c>
       <c r="V4">
         <v>0.007426</v>
       </c>
       <c r="W4">
+        <v>-0.011</v>
+      </c>
+      <c r="X4">
+        <v>-0.004722</v>
+      </c>
+      <c r="Y4">
         <v>0.034207</v>
-      </c>
-      <c r="X4">
-        <v>-0.000964</v>
-      </c>
-      <c r="Y4">
-        <v>-0.010747</v>
       </c>
       <c r="Z4" s="2">
         <v>44567</v>
@@ -7438,76 +7438,76 @@
         <v>-32</v>
       </c>
       <c r="B5">
-        <v>-0.01073</v>
+        <v>0.000655</v>
       </c>
       <c r="C5">
+        <v>0.001069</v>
+      </c>
+      <c r="D5">
         <v>0.002562</v>
       </c>
-      <c r="D5">
+      <c r="E5">
+        <v>0.015919</v>
+      </c>
+      <c r="F5">
         <v>-0.001183</v>
-      </c>
-      <c r="E5">
-        <v>-0.007707</v>
-      </c>
-      <c r="F5">
-        <v>0.021721</v>
       </c>
       <c r="G5">
         <v>0.018476</v>
       </c>
       <c r="H5">
-        <v>0.015919</v>
+        <v>0.028375</v>
       </c>
       <c r="I5">
+        <v>-0.059025</v>
+      </c>
+      <c r="J5">
+        <v>0.003103</v>
+      </c>
+      <c r="K5">
+        <v>-0.01073</v>
+      </c>
+      <c r="L5">
         <v>-0.002602</v>
       </c>
-      <c r="J5">
+      <c r="M5">
+        <v>0.020261</v>
+      </c>
+      <c r="N5">
+        <v>-0.000553</v>
+      </c>
+      <c r="O5">
         <v>0.004323</v>
       </c>
-      <c r="K5">
-        <v>0.020261</v>
-      </c>
-      <c r="L5">
-        <v>-0.000553</v>
-      </c>
-      <c r="M5">
-        <v>0.028375</v>
-      </c>
-      <c r="N5">
+      <c r="P5">
+        <v>-0.007707</v>
+      </c>
+      <c r="Q5">
+        <v>-0.012903</v>
+      </c>
+      <c r="R5">
         <v>0.004038</v>
       </c>
-      <c r="O5">
+      <c r="S5">
+        <v>-0.02196</v>
+      </c>
+      <c r="T5">
         <v>0.006668</v>
       </c>
-      <c r="P5">
-        <v>0.001069</v>
-      </c>
-      <c r="Q5">
-        <v>-0.002591</v>
-      </c>
-      <c r="R5">
-        <v>-0.059025</v>
-      </c>
-      <c r="S5">
-        <v>0.000655</v>
-      </c>
-      <c r="T5">
-        <v>0.003103</v>
-      </c>
       <c r="U5">
-        <v>-0.012903</v>
+        <v>-0.004058</v>
       </c>
       <c r="V5">
         <v>-0.030946</v>
       </c>
       <c r="W5">
+        <v>0.021721</v>
+      </c>
+      <c r="X5">
+        <v>-0.002591</v>
+      </c>
+      <c r="Y5">
         <v>-0.029821</v>
-      </c>
-      <c r="X5">
-        <v>-0.004058</v>
-      </c>
-      <c r="Y5">
-        <v>-0.02196</v>
       </c>
       <c r="Z5" s="2">
         <v>44568</v>
@@ -7518,76 +7518,76 @@
         <v>-31</v>
       </c>
       <c r="B6">
-        <v>0.029292</v>
+        <v>0.002348</v>
       </c>
       <c r="C6">
+        <v>-0.004822</v>
+      </c>
+      <c r="D6">
         <v>0.005105</v>
       </c>
-      <c r="D6">
+      <c r="E6">
+        <v>0.009289</v>
+      </c>
+      <c r="F6">
         <v>-0.022555</v>
-      </c>
-      <c r="E6">
-        <v>0.008427</v>
-      </c>
-      <c r="F6">
-        <v>0.035492</v>
       </c>
       <c r="G6">
         <v>0.025452</v>
       </c>
       <c r="H6">
-        <v>0.009289</v>
+        <v>0.002566</v>
       </c>
       <c r="I6">
+        <v>-0.056892</v>
+      </c>
+      <c r="J6">
+        <v>-0.002216</v>
+      </c>
+      <c r="K6">
+        <v>0.029292</v>
+      </c>
+      <c r="L6">
         <v>-0.008683</v>
       </c>
-      <c r="J6">
+      <c r="M6">
+        <v>0.011354</v>
+      </c>
+      <c r="N6">
+        <v>-0.013735</v>
+      </c>
+      <c r="O6">
         <v>0.005896</v>
       </c>
-      <c r="K6">
-        <v>0.011354</v>
-      </c>
-      <c r="L6">
-        <v>-0.013735</v>
-      </c>
-      <c r="M6">
-        <v>0.002566</v>
-      </c>
-      <c r="N6">
+      <c r="P6">
+        <v>0.008427</v>
+      </c>
+      <c r="Q6">
+        <v>-0.014125</v>
+      </c>
+      <c r="R6">
         <v>-0.026839</v>
       </c>
-      <c r="O6">
+      <c r="S6">
+        <v>-0.023439</v>
+      </c>
+      <c r="T6">
         <v>0.002323</v>
       </c>
-      <c r="P6">
-        <v>-0.004822</v>
-      </c>
-      <c r="Q6">
-        <v>0.011133</v>
-      </c>
-      <c r="R6">
-        <v>-0.056892</v>
-      </c>
-      <c r="S6">
-        <v>0.002348</v>
-      </c>
-      <c r="T6">
-        <v>-0.002216</v>
-      </c>
       <c r="U6">
-        <v>-0.014125</v>
+        <v>-0.001442</v>
       </c>
       <c r="V6">
         <v>-0.011433</v>
       </c>
       <c r="W6">
+        <v>0.035492</v>
+      </c>
+      <c r="X6">
+        <v>0.011133</v>
+      </c>
+      <c r="Y6">
         <v>0.026985</v>
-      </c>
-      <c r="X6">
-        <v>-0.001442</v>
-      </c>
-      <c r="Y6">
-        <v>-0.023439</v>
       </c>
       <c r="Z6" s="2">
         <v>44571</v>
@@ -7598,76 +7598,76 @@
         <v>-30</v>
       </c>
       <c r="B7">
-        <v>0.011458</v>
+        <v>0.008461</v>
       </c>
       <c r="C7">
+        <v>0.006957</v>
+      </c>
+      <c r="D7">
         <v>0.032564</v>
       </c>
-      <c r="D7">
+      <c r="E7">
+        <v>0.00797</v>
+      </c>
+      <c r="F7">
         <v>0.025839</v>
-      </c>
-      <c r="E7">
-        <v>0.037643</v>
-      </c>
-      <c r="F7">
-        <v>0.00582</v>
       </c>
       <c r="G7">
         <v>-0.008534999999999999</v>
       </c>
       <c r="H7">
-        <v>0.00797</v>
+        <v>0.037993</v>
       </c>
       <c r="I7">
+        <v>0.033165</v>
+      </c>
+      <c r="J7">
+        <v>0.003248</v>
+      </c>
+      <c r="K7">
+        <v>0.011458</v>
+      </c>
+      <c r="L7">
         <v>-0.006472</v>
       </c>
-      <c r="J7">
+      <c r="M7">
+        <v>0.013354</v>
+      </c>
+      <c r="N7">
+        <v>-0.011655</v>
+      </c>
+      <c r="O7">
         <v>-0.010079</v>
       </c>
-      <c r="K7">
-        <v>0.013354</v>
-      </c>
-      <c r="L7">
-        <v>-0.011655</v>
-      </c>
-      <c r="M7">
-        <v>0.037993</v>
-      </c>
-      <c r="N7">
+      <c r="P7">
+        <v>0.037643</v>
+      </c>
+      <c r="Q7">
+        <v>0.007349</v>
+      </c>
+      <c r="R7">
         <v>-0.003258</v>
       </c>
-      <c r="O7">
+      <c r="S7">
+        <v>0.022816</v>
+      </c>
+      <c r="T7">
         <v>0.014971</v>
       </c>
-      <c r="P7">
-        <v>0.006957</v>
-      </c>
-      <c r="Q7">
-        <v>0.004244</v>
-      </c>
-      <c r="R7">
-        <v>0.033165</v>
-      </c>
-      <c r="S7">
-        <v>0.008461</v>
-      </c>
-      <c r="T7">
-        <v>0.003248</v>
-      </c>
       <c r="U7">
-        <v>0.007349</v>
+        <v>0.009117999999999999</v>
       </c>
       <c r="V7">
         <v>-0.032822</v>
       </c>
       <c r="W7">
+        <v>0.00582</v>
+      </c>
+      <c r="X7">
+        <v>0.004244</v>
+      </c>
+      <c r="Y7">
         <v>0.060938</v>
-      </c>
-      <c r="X7">
-        <v>0.009117999999999999</v>
-      </c>
-      <c r="Y7">
-        <v>0.022816</v>
       </c>
       <c r="Z7" s="2">
         <v>44572</v>
@@ -7678,76 +7678,76 @@
         <v>-29</v>
       </c>
       <c r="B8">
-        <v>0.018019</v>
+        <v>-0.0247</v>
       </c>
       <c r="C8">
+        <v>0.003726</v>
+      </c>
+      <c r="D8">
         <v>-0.007421</v>
       </c>
-      <c r="D8">
+      <c r="E8">
+        <v>-0.000706</v>
+      </c>
+      <c r="F8">
         <v>-0.016529</v>
-      </c>
-      <c r="E8">
-        <v>-0.013482</v>
-      </c>
-      <c r="F8">
-        <v>-0.010131</v>
       </c>
       <c r="G8">
         <v>-0.005772</v>
       </c>
       <c r="H8">
-        <v>-0.000706</v>
+        <v>-0.0008229999999999999</v>
       </c>
       <c r="I8">
+        <v>-0.005979</v>
+      </c>
+      <c r="J8">
+        <v>-0.014698</v>
+      </c>
+      <c r="K8">
+        <v>0.018019</v>
+      </c>
+      <c r="L8">
         <v>-0.003614</v>
       </c>
-      <c r="J8">
+      <c r="M8">
+        <v>-0.005438</v>
+      </c>
+      <c r="N8">
+        <v>0.002203</v>
+      </c>
+      <c r="O8">
         <v>-0.000349</v>
       </c>
-      <c r="K8">
-        <v>-0.005438</v>
-      </c>
-      <c r="L8">
-        <v>0.002203</v>
-      </c>
-      <c r="M8">
-        <v>-0.0008229999999999999</v>
-      </c>
-      <c r="N8">
+      <c r="P8">
+        <v>-0.013482</v>
+      </c>
+      <c r="Q8">
+        <v>-0.006822</v>
+      </c>
+      <c r="R8">
         <v>0.010916</v>
       </c>
-      <c r="O8">
+      <c r="S8">
+        <v>0.001699</v>
+      </c>
+      <c r="T8">
         <v>-0.008527</v>
       </c>
-      <c r="P8">
-        <v>0.003726</v>
-      </c>
-      <c r="Q8">
-        <v>0.002333</v>
-      </c>
-      <c r="R8">
-        <v>-0.005979</v>
-      </c>
-      <c r="S8">
-        <v>-0.0247</v>
-      </c>
-      <c r="T8">
-        <v>-0.014698</v>
-      </c>
       <c r="U8">
-        <v>-0.006822</v>
+        <v>0.002814</v>
       </c>
       <c r="V8">
         <v>0.000966</v>
       </c>
       <c r="W8">
+        <v>-0.010131</v>
+      </c>
+      <c r="X8">
+        <v>0.002333</v>
+      </c>
+      <c r="Y8">
         <v>0.031884</v>
-      </c>
-      <c r="X8">
-        <v>0.002814</v>
-      </c>
-      <c r="Y8">
-        <v>0.001699</v>
       </c>
       <c r="Z8" s="2">
         <v>44573</v>
@@ -7758,76 +7758,76 @@
         <v>-28</v>
       </c>
       <c r="B9">
-        <v>0.018587</v>
+        <v>-0.024725</v>
       </c>
       <c r="C9">
+        <v>0.015292</v>
+      </c>
+      <c r="D9">
         <v>-0.06144</v>
       </c>
-      <c r="D9">
+      <c r="E9">
+        <v>-0.019789</v>
+      </c>
+      <c r="F9">
         <v>-0.0006669999999999999</v>
-      </c>
-      <c r="E9">
-        <v>-0.107365</v>
-      </c>
-      <c r="F9">
-        <v>-0.0034</v>
       </c>
       <c r="G9">
         <v>0.001477</v>
       </c>
       <c r="H9">
-        <v>-0.019789</v>
+        <v>-0.007711</v>
       </c>
       <c r="I9">
+        <v>0.015866</v>
+      </c>
+      <c r="J9">
+        <v>-0.03091</v>
+      </c>
+      <c r="K9">
+        <v>0.018587</v>
+      </c>
+      <c r="L9">
         <v>-0.00399</v>
       </c>
-      <c r="J9">
+      <c r="M9">
+        <v>-0.006061</v>
+      </c>
+      <c r="N9">
+        <v>-0.004538</v>
+      </c>
+      <c r="O9">
         <v>-0.001399</v>
       </c>
-      <c r="K9">
-        <v>-0.006061</v>
-      </c>
-      <c r="L9">
-        <v>-0.004538</v>
-      </c>
-      <c r="M9">
-        <v>-0.007711</v>
-      </c>
-      <c r="N9">
+      <c r="P9">
+        <v>-0.107365</v>
+      </c>
+      <c r="Q9">
+        <v>0.021361</v>
+      </c>
+      <c r="R9">
         <v>0.022629</v>
       </c>
-      <c r="O9">
+      <c r="S9">
+        <v>-0.001812</v>
+      </c>
+      <c r="T9">
         <v>0.012113</v>
       </c>
-      <c r="P9">
-        <v>0.015292</v>
-      </c>
-      <c r="Q9">
-        <v>-0.027844</v>
-      </c>
-      <c r="R9">
-        <v>0.015866</v>
-      </c>
-      <c r="S9">
-        <v>-0.024725</v>
-      </c>
-      <c r="T9">
-        <v>-0.03091</v>
-      </c>
       <c r="U9">
-        <v>0.021361</v>
+        <v>-0.014346</v>
       </c>
       <c r="V9">
         <v>-0.01134</v>
       </c>
       <c r="W9">
+        <v>-0.0034</v>
+      </c>
+      <c r="X9">
+        <v>-0.027844</v>
+      </c>
+      <c r="Y9">
         <v>-0.03926</v>
-      </c>
-      <c r="X9">
-        <v>-0.014346</v>
-      </c>
-      <c r="Y9">
-        <v>-0.001812</v>
       </c>
       <c r="Z9" s="2">
         <v>44574</v>
@@ -7838,76 +7838,76 @@
         <v>-27</v>
       </c>
       <c r="B10">
-        <v>0.012787</v>
+        <v>-0.02248</v>
       </c>
       <c r="C10">
+        <v>-0.026513</v>
+      </c>
+      <c r="D10">
         <v>-0.030834</v>
       </c>
-      <c r="D10">
+      <c r="E10">
+        <v>-0.01068</v>
+      </c>
+      <c r="F10">
         <v>-0.012891</v>
-      </c>
-      <c r="E10">
-        <v>-0.008898</v>
-      </c>
-      <c r="F10">
-        <v>0.005095</v>
       </c>
       <c r="G10">
         <v>0.000738</v>
       </c>
       <c r="H10">
-        <v>-0.01068</v>
+        <v>0.044344</v>
       </c>
       <c r="I10">
+        <v>-0.049061</v>
+      </c>
+      <c r="J10">
+        <v>-0.011559</v>
+      </c>
+      <c r="K10">
+        <v>0.012787</v>
+      </c>
+      <c r="L10">
         <v>0.010965</v>
       </c>
-      <c r="J10">
+      <c r="M10">
+        <v>0.009665</v>
+      </c>
+      <c r="N10">
+        <v>0.009557</v>
+      </c>
+      <c r="O10">
         <v>0.002167</v>
       </c>
-      <c r="K10">
-        <v>0.009665</v>
-      </c>
-      <c r="L10">
-        <v>0.009557</v>
-      </c>
-      <c r="M10">
-        <v>0.044344</v>
-      </c>
-      <c r="N10">
+      <c r="P10">
+        <v>-0.008898</v>
+      </c>
+      <c r="Q10">
+        <v>0.002574</v>
+      </c>
+      <c r="R10">
         <v>0.002006</v>
       </c>
-      <c r="O10">
+      <c r="S10">
+        <v>-0.03255</v>
+      </c>
+      <c r="T10">
         <v>0.007295</v>
       </c>
-      <c r="P10">
-        <v>-0.026513</v>
-      </c>
-      <c r="Q10">
-        <v>0.017447</v>
-      </c>
-      <c r="R10">
-        <v>-0.049061</v>
-      </c>
-      <c r="S10">
-        <v>-0.02248</v>
-      </c>
-      <c r="T10">
-        <v>-0.011559</v>
-      </c>
       <c r="U10">
-        <v>0.002574</v>
+        <v>0.00082</v>
       </c>
       <c r="V10">
         <v>-0.017519</v>
       </c>
       <c r="W10">
+        <v>0.005095</v>
+      </c>
+      <c r="X10">
+        <v>0.017447</v>
+      </c>
+      <c r="Y10">
         <v>0.09279900000000001</v>
-      </c>
-      <c r="X10">
-        <v>0.00082</v>
-      </c>
-      <c r="Y10">
-        <v>-0.03255</v>
       </c>
       <c r="Z10" s="2">
         <v>44575</v>
@@ -7918,76 +7918,76 @@
         <v>-26</v>
       </c>
       <c r="B11">
-        <v>-0.059222</v>
+        <v>0.012012</v>
       </c>
       <c r="C11">
+        <v>-0.034995</v>
+      </c>
+      <c r="D11">
         <v>-0.048824</v>
       </c>
-      <c r="D11">
+      <c r="E11">
+        <v>-0.015405</v>
+      </c>
+      <c r="F11">
         <v>-0.023659</v>
-      </c>
-      <c r="E11">
-        <v>-0.063488</v>
-      </c>
-      <c r="F11">
-        <v>-0.000616</v>
       </c>
       <c r="G11">
         <v>0.001964</v>
       </c>
       <c r="H11">
-        <v>-0.015405</v>
+        <v>-0.007167</v>
       </c>
       <c r="I11">
+        <v>-0.017195</v>
+      </c>
+      <c r="J11">
+        <v>-0.012484</v>
+      </c>
+      <c r="K11">
+        <v>-0.059222</v>
+      </c>
+      <c r="L11">
         <v>-0.003962</v>
       </c>
-      <c r="J11">
+      <c r="M11">
+        <v>-0.017704</v>
+      </c>
+      <c r="N11">
+        <v>-0.019461</v>
+      </c>
+      <c r="O11">
         <v>-0.016334</v>
       </c>
-      <c r="K11">
-        <v>-0.017704</v>
-      </c>
-      <c r="L11">
-        <v>-0.019461</v>
-      </c>
-      <c r="M11">
-        <v>-0.007167</v>
-      </c>
-      <c r="N11">
+      <c r="P11">
+        <v>-0.063488</v>
+      </c>
+      <c r="Q11">
+        <v>-0.012416</v>
+      </c>
+      <c r="R11">
         <v>-0.042398</v>
       </c>
-      <c r="O11">
+      <c r="S11">
+        <v>-0.027487</v>
+      </c>
+      <c r="T11">
         <v>-0.021717</v>
       </c>
-      <c r="P11">
-        <v>-0.034995</v>
-      </c>
-      <c r="Q11">
-        <v>0.006675</v>
-      </c>
-      <c r="R11">
-        <v>-0.017195</v>
-      </c>
-      <c r="S11">
-        <v>0.012012</v>
-      </c>
-      <c r="T11">
-        <v>-0.012484</v>
-      </c>
       <c r="U11">
-        <v>-0.012416</v>
+        <v>-0.018559</v>
       </c>
       <c r="V11">
         <v>-0.014008</v>
       </c>
       <c r="W11">
+        <v>-0.000616</v>
+      </c>
+      <c r="X11">
+        <v>0.006675</v>
+      </c>
+      <c r="Y11">
         <v>-0.051923</v>
-      </c>
-      <c r="X11">
-        <v>-0.018559</v>
-      </c>
-      <c r="Y11">
-        <v>-0.027487</v>
       </c>
       <c r="Z11" s="2">
         <v>44579</v>
@@ -7998,76 +7998,76 @@
         <v>-25</v>
       </c>
       <c r="B12">
-        <v>0.003364</v>
+        <v>-0.008208999999999999</v>
       </c>
       <c r="C12">
+        <v>0.025819</v>
+      </c>
+      <c r="D12">
         <v>0.041308</v>
       </c>
-      <c r="D12">
+      <c r="E12">
+        <v>-0.01059</v>
+      </c>
+      <c r="F12">
         <v>-0.016113</v>
-      </c>
-      <c r="E12">
-        <v>-0.018375</v>
-      </c>
-      <c r="F12">
-        <v>-0.002623</v>
       </c>
       <c r="G12">
         <v>-0.003071</v>
       </c>
       <c r="H12">
-        <v>-0.01059</v>
+        <v>-0.01179</v>
       </c>
       <c r="I12">
+        <v>-0.010213</v>
+      </c>
+      <c r="J12">
+        <v>-0.004117</v>
+      </c>
+      <c r="K12">
+        <v>0.003364</v>
+      </c>
+      <c r="L12">
         <v>0.011245</v>
       </c>
-      <c r="J12">
+      <c r="M12">
+        <v>-0.010669</v>
+      </c>
+      <c r="N12">
+        <v>0.033072</v>
+      </c>
+      <c r="O12">
         <v>0.012696</v>
       </c>
-      <c r="K12">
-        <v>-0.010669</v>
-      </c>
-      <c r="L12">
-        <v>0.033072</v>
-      </c>
-      <c r="M12">
-        <v>-0.01179</v>
-      </c>
-      <c r="N12">
+      <c r="P12">
+        <v>-0.018375</v>
+      </c>
+      <c r="Q12">
+        <v>-0.03712</v>
+      </c>
+      <c r="R12">
         <v>-0.023879</v>
       </c>
-      <c r="O12">
+      <c r="S12">
+        <v>-0.025975</v>
+      </c>
+      <c r="T12">
         <v>0.009365</v>
       </c>
-      <c r="P12">
-        <v>0.025819</v>
-      </c>
-      <c r="Q12">
-        <v>-0.011545</v>
-      </c>
-      <c r="R12">
-        <v>-0.010213</v>
-      </c>
-      <c r="S12">
-        <v>-0.008208999999999999</v>
-      </c>
-      <c r="T12">
-        <v>-0.004117</v>
-      </c>
       <c r="U12">
-        <v>-0.03712</v>
+        <v>-0.009737000000000001</v>
       </c>
       <c r="V12">
         <v>0.006262</v>
       </c>
       <c r="W12">
+        <v>-0.002623</v>
+      </c>
+      <c r="X12">
+        <v>-0.011545</v>
+      </c>
+      <c r="Y12">
         <v>-0.01661</v>
-      </c>
-      <c r="X12">
-        <v>-0.009737000000000001</v>
-      </c>
-      <c r="Y12">
-        <v>-0.025975</v>
       </c>
       <c r="Z12" s="2">
         <v>44580</v>
@@ -8078,76 +8078,76 @@
         <v>-24</v>
       </c>
       <c r="B13">
-        <v>0.017793</v>
+        <v>-0.007866</v>
       </c>
       <c r="C13">
+        <v>-0.009261999999999999</v>
+      </c>
+      <c r="D13">
         <v>-0.001373</v>
       </c>
-      <c r="D13">
+      <c r="E13">
+        <v>0.009480000000000001</v>
+      </c>
+      <c r="F13">
         <v>0.000211</v>
-      </c>
-      <c r="E13">
-        <v>-0.001713</v>
-      </c>
-      <c r="F13">
-        <v>-0.002165</v>
       </c>
       <c r="G13">
         <v>-0.006665</v>
       </c>
       <c r="H13">
-        <v>0.009480000000000001</v>
+        <v>-0.001349</v>
       </c>
       <c r="I13">
+        <v>-0.039532</v>
+      </c>
+      <c r="J13">
+        <v>-0.010688</v>
+      </c>
+      <c r="K13">
+        <v>0.017793</v>
+      </c>
+      <c r="L13">
         <v>-0.009202</v>
       </c>
-      <c r="J13">
+      <c r="M13">
+        <v>0.003694</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
         <v>-0.00781</v>
       </c>
-      <c r="K13">
-        <v>0.003694</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>-0.001349</v>
-      </c>
-      <c r="N13">
+      <c r="P13">
+        <v>-0.001713</v>
+      </c>
+      <c r="Q13">
+        <v>-0.044182</v>
+      </c>
+      <c r="R13">
         <v>-0.021021</v>
       </c>
-      <c r="O13">
+      <c r="S13">
+        <v>-0.003403</v>
+      </c>
+      <c r="T13">
         <v>0.000163</v>
       </c>
-      <c r="P13">
-        <v>-0.009261999999999999</v>
-      </c>
-      <c r="Q13">
-        <v>-0.016255</v>
-      </c>
-      <c r="R13">
-        <v>-0.039532</v>
-      </c>
-      <c r="S13">
-        <v>-0.007866</v>
-      </c>
-      <c r="T13">
-        <v>-0.010688</v>
-      </c>
       <c r="U13">
-        <v>-0.044182</v>
+        <v>-0.011099</v>
       </c>
       <c r="V13">
         <v>-0.037155</v>
       </c>
       <c r="W13">
+        <v>-0.002165</v>
+      </c>
+      <c r="X13">
+        <v>-0.016255</v>
+      </c>
+      <c r="Y13">
         <v>-0.018228</v>
-      </c>
-      <c r="X13">
-        <v>-0.011099</v>
-      </c>
-      <c r="Y13">
-        <v>-0.003403</v>
       </c>
       <c r="Z13" s="2">
         <v>44581</v>
@@ -8158,76 +8158,76 @@
         <v>-23</v>
       </c>
       <c r="B14">
-        <v>-0.037915</v>
+        <v>-0.000288</v>
       </c>
       <c r="C14">
+        <v>0.001094</v>
+      </c>
+      <c r="D14">
         <v>-0.051438</v>
       </c>
-      <c r="D14">
+      <c r="E14">
+        <v>-0.023588</v>
+      </c>
+      <c r="F14">
         <v>0.000141</v>
-      </c>
-      <c r="E14">
-        <v>-0.08558300000000001</v>
-      </c>
-      <c r="F14">
-        <v>-0.016235</v>
       </c>
       <c r="G14">
         <v>-0.009580999999999999</v>
       </c>
       <c r="H14">
-        <v>-0.023588</v>
+        <v>-0.018799</v>
       </c>
       <c r="I14">
+        <v>-0.012973</v>
+      </c>
+      <c r="J14">
+        <v>0.008940999999999999</v>
+      </c>
+      <c r="K14">
+        <v>-0.037915</v>
+      </c>
+      <c r="L14">
         <v>0.004552</v>
       </c>
-      <c r="J14">
+      <c r="M14">
+        <v>-0.010288</v>
+      </c>
+      <c r="N14">
+        <v>0.00382</v>
+      </c>
+      <c r="O14">
         <v>0.012286</v>
       </c>
-      <c r="K14">
-        <v>-0.010288</v>
-      </c>
-      <c r="L14">
-        <v>0.00382</v>
-      </c>
-      <c r="M14">
-        <v>-0.018799</v>
-      </c>
-      <c r="N14">
+      <c r="P14">
+        <v>-0.08558300000000001</v>
+      </c>
+      <c r="Q14">
+        <v>-0.018809</v>
+      </c>
+      <c r="R14">
         <v>-0.013841</v>
       </c>
-      <c r="O14">
+      <c r="S14">
+        <v>-0.031163</v>
+      </c>
+      <c r="T14">
         <v>-0.022488</v>
       </c>
-      <c r="P14">
-        <v>0.001094</v>
-      </c>
-      <c r="Q14">
-        <v>-0.007924</v>
-      </c>
-      <c r="R14">
-        <v>-0.012973</v>
-      </c>
-      <c r="S14">
-        <v>-0.000288</v>
-      </c>
-      <c r="T14">
-        <v>0.008940999999999999</v>
-      </c>
       <c r="U14">
-        <v>-0.018809</v>
+        <v>-0.019096</v>
       </c>
       <c r="V14">
         <v>-0.03937</v>
       </c>
       <c r="W14">
+        <v>-0.016235</v>
+      </c>
+      <c r="X14">
+        <v>-0.007924</v>
+      </c>
+      <c r="Y14">
         <v>-0.019589</v>
-      </c>
-      <c r="X14">
-        <v>-0.019096</v>
-      </c>
-      <c r="Y14">
-        <v>-0.031163</v>
       </c>
       <c r="Z14" s="2">
         <v>44582</v>
@@ -8238,76 +8238,76 @@
         <v>-22</v>
       </c>
       <c r="B15">
-        <v>-0.033527</v>
+        <v>-0.010921</v>
       </c>
       <c r="C15">
+        <v>0.003275</v>
+      </c>
+      <c r="D15">
         <v>-0.010175</v>
       </c>
-      <c r="D15">
+      <c r="E15">
+        <v>-0.023964</v>
+      </c>
+      <c r="F15">
         <v>-0.012591</v>
-      </c>
-      <c r="E15">
-        <v>-0.010013</v>
-      </c>
-      <c r="F15">
-        <v>-0.014745</v>
       </c>
       <c r="G15">
         <v>-0.014483</v>
       </c>
       <c r="H15">
-        <v>-0.023964</v>
+        <v>0.006579</v>
       </c>
       <c r="I15">
+        <v>0.048781</v>
+      </c>
+      <c r="J15">
+        <v>-0.016103</v>
+      </c>
+      <c r="K15">
+        <v>-0.033527</v>
+      </c>
+      <c r="L15">
         <v>0</v>
       </c>
-      <c r="J15">
+      <c r="M15">
+        <v>0.000228</v>
+      </c>
+      <c r="N15">
+        <v>-0.008149999999999999</v>
+      </c>
+      <c r="O15">
         <v>-0.010662</v>
       </c>
-      <c r="K15">
-        <v>0.000228</v>
-      </c>
-      <c r="L15">
-        <v>-0.008149999999999999</v>
-      </c>
-      <c r="M15">
-        <v>0.006579</v>
-      </c>
-      <c r="N15">
+      <c r="P15">
+        <v>-0.010013</v>
+      </c>
+      <c r="Q15">
+        <v>-0.002304</v>
+      </c>
+      <c r="R15">
         <v>-0.012751</v>
       </c>
-      <c r="O15">
+      <c r="S15">
+        <v>0.015545</v>
+      </c>
+      <c r="T15">
         <v>0.018392</v>
       </c>
-      <c r="P15">
-        <v>0.003275</v>
-      </c>
-      <c r="Q15">
-        <v>0.001363</v>
-      </c>
-      <c r="R15">
-        <v>0.048781</v>
-      </c>
-      <c r="S15">
-        <v>-0.010921</v>
-      </c>
-      <c r="T15">
-        <v>-0.016103</v>
-      </c>
       <c r="U15">
-        <v>-0.002304</v>
+        <v>0.002768</v>
       </c>
       <c r="V15">
         <v>0.04811</v>
       </c>
       <c r="W15">
+        <v>-0.014745</v>
+      </c>
+      <c r="X15">
+        <v>0.001363</v>
+      </c>
+      <c r="Y15">
         <v>-0.022767</v>
-      </c>
-      <c r="X15">
-        <v>0.002768</v>
-      </c>
-      <c r="Y15">
-        <v>0.015545</v>
       </c>
       <c r="Z15" s="2">
         <v>44585</v>
@@ -8318,76 +8318,76 @@
         <v>-21</v>
       </c>
       <c r="B16">
-        <v>-0.029768</v>
+        <v>-0.004001</v>
       </c>
       <c r="C16">
+        <v>-0.027066</v>
+      </c>
+      <c r="D16">
         <v>-0.021411</v>
       </c>
-      <c r="D16">
+      <c r="E16">
+        <v>0.019217</v>
+      </c>
+      <c r="F16">
         <v>0.013505</v>
-      </c>
-      <c r="E16">
-        <v>-0.036507</v>
-      </c>
-      <c r="F16">
-        <v>-0.002399</v>
       </c>
       <c r="G16">
         <v>0.00796</v>
       </c>
       <c r="H16">
-        <v>0.019217</v>
+        <v>0.058114</v>
       </c>
       <c r="I16">
+        <v>0.006199</v>
+      </c>
+      <c r="J16">
+        <v>-0.004452</v>
+      </c>
+      <c r="K16">
+        <v>-0.029768</v>
+      </c>
+      <c r="L16">
         <v>-0.023337</v>
       </c>
-      <c r="J16">
+      <c r="M16">
+        <v>-0.003732</v>
+      </c>
+      <c r="N16">
+        <v>-0.010971</v>
+      </c>
+      <c r="O16">
         <v>-0.015422</v>
       </c>
-      <c r="K16">
-        <v>-0.003732</v>
-      </c>
-      <c r="L16">
-        <v>-0.010971</v>
-      </c>
-      <c r="M16">
-        <v>0.058114</v>
-      </c>
-      <c r="N16">
+      <c r="P16">
+        <v>-0.036507</v>
+      </c>
+      <c r="Q16">
+        <v>-0.015693</v>
+      </c>
+      <c r="R16">
         <v>0.014966</v>
       </c>
-      <c r="O16">
+      <c r="S16">
+        <v>-0.005999</v>
+      </c>
+      <c r="T16">
         <v>-0.007746</v>
       </c>
-      <c r="P16">
-        <v>-0.027066</v>
-      </c>
-      <c r="Q16">
-        <v>0.007012</v>
-      </c>
-      <c r="R16">
-        <v>0.006199</v>
-      </c>
-      <c r="S16">
-        <v>-0.004001</v>
-      </c>
-      <c r="T16">
-        <v>-0.004452</v>
-      </c>
       <c r="U16">
-        <v>-0.015693</v>
+        <v>-0.012247</v>
       </c>
       <c r="V16">
         <v>-0.044551</v>
       </c>
       <c r="W16">
+        <v>-0.002399</v>
+      </c>
+      <c r="X16">
+        <v>0.007012</v>
+      </c>
+      <c r="Y16">
         <v>0.03261</v>
-      </c>
-      <c r="X16">
-        <v>-0.012247</v>
-      </c>
-      <c r="Y16">
-        <v>-0.005999</v>
       </c>
       <c r="Z16" s="2">
         <v>44586</v>
@@ -8398,76 +8398,76 @@
         <v>-20</v>
       </c>
       <c r="B17">
-        <v>-0.030941</v>
+        <v>-0.006704</v>
       </c>
       <c r="C17">
+        <v>-0.01694</v>
+      </c>
+      <c r="D17">
         <v>-0.012768</v>
       </c>
-      <c r="D17">
+      <c r="E17">
+        <v>0.008906000000000001</v>
+      </c>
+      <c r="F17">
         <v>0.016922</v>
-      </c>
-      <c r="E17">
-        <v>-0.068504</v>
-      </c>
-      <c r="F17">
-        <v>-0.003528</v>
       </c>
       <c r="G17">
         <v>-0.004035</v>
       </c>
       <c r="H17">
-        <v>0.008906000000000001</v>
+        <v>0.025704</v>
       </c>
       <c r="I17">
+        <v>-0.035217</v>
+      </c>
+      <c r="J17">
+        <v>-0.026302</v>
+      </c>
+      <c r="K17">
+        <v>-0.030941</v>
+      </c>
+      <c r="L17">
         <v>-0.004291</v>
       </c>
-      <c r="J17">
+      <c r="M17">
+        <v>-0.003899</v>
+      </c>
+      <c r="N17">
+        <v>-0.008751</v>
+      </c>
+      <c r="O17">
         <v>-0.034907</v>
       </c>
-      <c r="K17">
-        <v>-0.003899</v>
-      </c>
-      <c r="L17">
-        <v>-0.008751</v>
-      </c>
-      <c r="M17">
-        <v>0.025704</v>
-      </c>
-      <c r="N17">
+      <c r="P17">
+        <v>-0.068504</v>
+      </c>
+      <c r="Q17">
+        <v>0.052494</v>
+      </c>
+      <c r="R17">
         <v>-0.006659</v>
       </c>
-      <c r="O17">
+      <c r="S17">
+        <v>-0.024623</v>
+      </c>
+      <c r="T17">
         <v>-0.019548</v>
       </c>
-      <c r="P17">
-        <v>-0.01694</v>
-      </c>
-      <c r="Q17">
-        <v>0.008529</v>
-      </c>
-      <c r="R17">
-        <v>-0.035217</v>
-      </c>
-      <c r="S17">
-        <v>-0.006704</v>
-      </c>
-      <c r="T17">
-        <v>-0.026302</v>
-      </c>
       <c r="U17">
-        <v>0.052494</v>
+        <v>-0.001498</v>
       </c>
       <c r="V17">
         <v>-0.029442</v>
       </c>
       <c r="W17">
+        <v>-0.003528</v>
+      </c>
+      <c r="X17">
+        <v>0.008529</v>
+      </c>
+      <c r="Y17">
         <v>-0.014629</v>
-      </c>
-      <c r="X17">
-        <v>-0.001498</v>
-      </c>
-      <c r="Y17">
-        <v>-0.024623</v>
       </c>
       <c r="Z17" s="2">
         <v>44587</v>
@@ -8478,76 +8478,76 @@
         <v>-19</v>
       </c>
       <c r="B18">
-        <v>-0.069216</v>
+        <v>-0.004804</v>
       </c>
       <c r="C18">
+        <v>-0.007431</v>
+      </c>
+      <c r="D18">
         <v>-0.034606</v>
       </c>
-      <c r="D18">
+      <c r="E18">
+        <v>0.006768</v>
+      </c>
+      <c r="F18">
         <v>-0.053688</v>
-      </c>
-      <c r="E18">
-        <v>-0.011593</v>
-      </c>
-      <c r="F18">
-        <v>0.025695</v>
       </c>
       <c r="G18">
         <v>0.018032</v>
       </c>
       <c r="H18">
-        <v>0.006768</v>
+        <v>-0.023901</v>
       </c>
       <c r="I18">
+        <v>0.020276</v>
+      </c>
+      <c r="J18">
+        <v>0.003077</v>
+      </c>
+      <c r="K18">
+        <v>-0.069216</v>
+      </c>
+      <c r="L18">
         <v>0.015967</v>
       </c>
-      <c r="J18">
+      <c r="M18">
+        <v>0.03122</v>
+      </c>
+      <c r="N18">
+        <v>0.006178</v>
+      </c>
+      <c r="O18">
         <v>0.01939</v>
       </c>
-      <c r="K18">
-        <v>0.03122</v>
-      </c>
-      <c r="L18">
-        <v>0.006178</v>
-      </c>
-      <c r="M18">
-        <v>-0.023901</v>
-      </c>
-      <c r="N18">
+      <c r="P18">
+        <v>-0.011593</v>
+      </c>
+      <c r="Q18">
+        <v>-0.020781</v>
+      </c>
+      <c r="R18">
         <v>-0.055606</v>
       </c>
-      <c r="O18">
+      <c r="S18">
+        <v>-0.020926</v>
+      </c>
+      <c r="T18">
         <v>-0.02166</v>
       </c>
-      <c r="P18">
-        <v>-0.007431</v>
-      </c>
-      <c r="Q18">
-        <v>0.01288</v>
-      </c>
-      <c r="R18">
-        <v>0.020276</v>
-      </c>
-      <c r="S18">
-        <v>-0.004804</v>
-      </c>
-      <c r="T18">
-        <v>0.003077</v>
-      </c>
       <c r="U18">
-        <v>-0.020781</v>
+        <v>-0.005399</v>
       </c>
       <c r="V18">
         <v>0.013782</v>
       </c>
       <c r="W18">
+        <v>0.025695</v>
+      </c>
+      <c r="X18">
+        <v>0.01288</v>
+      </c>
+      <c r="Y18">
         <v>0.039313</v>
-      </c>
-      <c r="X18">
-        <v>-0.005399</v>
-      </c>
-      <c r="Y18">
-        <v>-0.020926</v>
       </c>
       <c r="Z18" s="2">
         <v>44588</v>
@@ -8558,76 +8558,76 @@
         <v>-18</v>
       </c>
       <c r="B19">
-        <v>0.085061</v>
+        <v>0.034788</v>
       </c>
       <c r="C19">
+        <v>0.009138</v>
+      </c>
+      <c r="D19">
         <v>0.017068</v>
       </c>
-      <c r="D19">
+      <c r="E19">
+        <v>0.017828</v>
+      </c>
+      <c r="F19">
         <v>0.043764</v>
-      </c>
-      <c r="E19">
-        <v>0.072239</v>
-      </c>
-      <c r="F19">
-        <v>0.016309</v>
       </c>
       <c r="G19">
         <v>0.003963</v>
       </c>
       <c r="H19">
-        <v>0.017828</v>
+        <v>0.020882</v>
       </c>
       <c r="I19">
+        <v>0.022505</v>
+      </c>
+      <c r="J19">
+        <v>0.039958</v>
+      </c>
+      <c r="K19">
+        <v>0.085061</v>
+      </c>
+      <c r="L19">
         <v>0.004223</v>
       </c>
-      <c r="J19">
+      <c r="M19">
+        <v>0.015544</v>
+      </c>
+      <c r="N19">
+        <v>0.008572</v>
+      </c>
+      <c r="O19">
         <v>0.01042</v>
       </c>
-      <c r="K19">
-        <v>0.015544</v>
-      </c>
-      <c r="L19">
-        <v>0.008572</v>
-      </c>
-      <c r="M19">
-        <v>0.020882</v>
-      </c>
-      <c r="N19">
+      <c r="P19">
+        <v>0.072239</v>
+      </c>
+      <c r="Q19">
+        <v>-0.024125</v>
+      </c>
+      <c r="R19">
         <v>0.035033</v>
       </c>
-      <c r="O19">
+      <c r="S19">
+        <v>0.002582</v>
+      </c>
+      <c r="T19">
         <v>0.013018</v>
       </c>
-      <c r="P19">
-        <v>0.009138</v>
-      </c>
-      <c r="Q19">
-        <v>0.01424</v>
-      </c>
-      <c r="R19">
-        <v>0.022505</v>
-      </c>
-      <c r="S19">
-        <v>0.034788</v>
-      </c>
-      <c r="T19">
-        <v>0.039958</v>
-      </c>
       <c r="U19">
-        <v>-0.024125</v>
+        <v>0.024056</v>
       </c>
       <c r="V19">
         <v>0.02626</v>
       </c>
       <c r="W19">
+        <v>0.016309</v>
+      </c>
+      <c r="X19">
+        <v>0.01424</v>
+      </c>
+      <c r="Y19">
         <v>0.006568</v>
-      </c>
-      <c r="X19">
-        <v>0.024056</v>
-      </c>
-      <c r="Y19">
-        <v>0.002582</v>
       </c>
       <c r="Z19" s="2">
         <v>44589</v>
@@ -8638,76 +8638,76 @@
         <v>-17</v>
       </c>
       <c r="B20">
-        <v>0.037257</v>
+        <v>0.001182</v>
       </c>
       <c r="C20">
+        <v>0.002838</v>
+      </c>
+      <c r="D20">
         <v>0.119491</v>
       </c>
-      <c r="D20">
+      <c r="E20">
+        <v>-0.030651</v>
+      </c>
+      <c r="F20">
         <v>0.011924</v>
-      </c>
-      <c r="E20">
-        <v>0.06737</v>
-      </c>
-      <c r="F20">
-        <v>-0.000308</v>
       </c>
       <c r="G20">
         <v>0.007144</v>
       </c>
       <c r="H20">
-        <v>-0.030651</v>
+        <v>-0.015492</v>
       </c>
       <c r="I20">
+        <v>0.051232</v>
+      </c>
+      <c r="J20">
+        <v>0.016693</v>
+      </c>
+      <c r="K20">
+        <v>0.037257</v>
+      </c>
+      <c r="L20">
         <v>-0.007251</v>
       </c>
-      <c r="J20">
+      <c r="M20">
+        <v>-0.004396</v>
+      </c>
+      <c r="N20">
+        <v>-0.000312</v>
+      </c>
+      <c r="O20">
         <v>-0.009183999999999999</v>
       </c>
-      <c r="K20">
-        <v>-0.004396</v>
-      </c>
-      <c r="L20">
-        <v>-0.000312</v>
-      </c>
-      <c r="M20">
-        <v>-0.015492</v>
-      </c>
-      <c r="N20">
+      <c r="P20">
+        <v>0.06737</v>
+      </c>
+      <c r="Q20">
+        <v>0.059256</v>
+      </c>
+      <c r="R20">
         <v>0.004537</v>
       </c>
-      <c r="O20">
+      <c r="S20">
+        <v>0.042904</v>
+      </c>
+      <c r="T20">
         <v>0.006784</v>
       </c>
-      <c r="P20">
-        <v>0.002838</v>
-      </c>
-      <c r="Q20">
-        <v>-0.007496</v>
-      </c>
-      <c r="R20">
-        <v>0.051232</v>
-      </c>
-      <c r="S20">
-        <v>0.001182</v>
-      </c>
-      <c r="T20">
-        <v>0.016693</v>
-      </c>
       <c r="U20">
-        <v>0.059256</v>
+        <v>0.01871</v>
       </c>
       <c r="V20">
         <v>0.03046</v>
       </c>
       <c r="W20">
+        <v>-0.000308</v>
+      </c>
+      <c r="X20">
+        <v>-0.007496</v>
+      </c>
+      <c r="Y20">
         <v>-0.018167</v>
-      </c>
-      <c r="X20">
-        <v>0.01871</v>
-      </c>
-      <c r="Y20">
-        <v>0.042904</v>
       </c>
       <c r="Z20" s="2">
         <v>44592</v>
@@ -8718,76 +8718,76 @@
         <v>-16</v>
       </c>
       <c r="B21">
-        <v>0.005893</v>
+        <v>0.011708</v>
       </c>
       <c r="C21">
+        <v>0.021868</v>
+      </c>
+      <c r="D21">
         <v>0.035538</v>
       </c>
-      <c r="D21">
+      <c r="E21">
+        <v>0.007186</v>
+      </c>
+      <c r="F21">
         <v>0.004195</v>
-      </c>
-      <c r="E21">
-        <v>0.03384</v>
-      </c>
-      <c r="F21">
-        <v>0.004613</v>
       </c>
       <c r="G21">
         <v>0.005386</v>
       </c>
       <c r="H21">
-        <v>0.007186</v>
+        <v>0.011452</v>
       </c>
       <c r="I21">
+        <v>0.023364</v>
+      </c>
+      <c r="J21">
+        <v>-0.002042</v>
+      </c>
+      <c r="K21">
+        <v>0.005893</v>
+      </c>
+      <c r="L21">
         <v>-0.006449</v>
       </c>
-      <c r="J21">
+      <c r="M21">
+        <v>0.010663</v>
+      </c>
+      <c r="N21">
+        <v>-0.004435</v>
+      </c>
+      <c r="O21">
         <v>-0.002837</v>
       </c>
-      <c r="K21">
-        <v>0.010663</v>
-      </c>
-      <c r="L21">
-        <v>-0.004435</v>
-      </c>
-      <c r="M21">
-        <v>0.011452</v>
-      </c>
-      <c r="N21">
+      <c r="P21">
+        <v>0.03384</v>
+      </c>
+      <c r="Q21">
+        <v>0.011983</v>
+      </c>
+      <c r="R21">
         <v>0.020481</v>
       </c>
-      <c r="O21">
+      <c r="S21">
+        <v>0.004676</v>
+      </c>
+      <c r="T21">
         <v>0.015598</v>
       </c>
-      <c r="P21">
-        <v>0.021868</v>
-      </c>
-      <c r="Q21">
-        <v>0.000803</v>
-      </c>
-      <c r="R21">
-        <v>0.023364</v>
-      </c>
-      <c r="S21">
-        <v>0.011708</v>
-      </c>
-      <c r="T21">
-        <v>-0.002042</v>
-      </c>
       <c r="U21">
-        <v>0.011983</v>
+        <v>0.00684</v>
       </c>
       <c r="V21">
         <v>0.007996</v>
       </c>
       <c r="W21">
+        <v>0.004613</v>
+      </c>
+      <c r="X21">
+        <v>0.000803</v>
+      </c>
+      <c r="Y21">
         <v>0.05575</v>
-      </c>
-      <c r="X21">
-        <v>0.00684</v>
-      </c>
-      <c r="Y21">
-        <v>0.004676</v>
       </c>
       <c r="Z21" s="2">
         <v>44593</v>
@@ -8798,76 +8798,76 @@
         <v>-15</v>
       </c>
       <c r="B22">
-        <v>0.013376</v>
+        <v>0.010218</v>
       </c>
       <c r="C22">
+        <v>-0.030408</v>
+      </c>
+      <c r="D22">
         <v>-0.038957</v>
       </c>
-      <c r="D22">
+      <c r="E22">
+        <v>0.014776</v>
+      </c>
+      <c r="F22">
         <v>-0.007785</v>
-      </c>
-      <c r="E22">
-        <v>-0.048389</v>
-      </c>
-      <c r="F22">
-        <v>-0.006</v>
       </c>
       <c r="G22">
         <v>0.001098</v>
       </c>
       <c r="H22">
-        <v>0.014776</v>
+        <v>-0.006855</v>
       </c>
       <c r="I22">
+        <v>0.07531499999999999</v>
+      </c>
+      <c r="J22">
+        <v>0.022081</v>
+      </c>
+      <c r="K22">
+        <v>0.013376</v>
+      </c>
+      <c r="L22">
         <v>0.010685</v>
       </c>
-      <c r="J22">
+      <c r="M22">
+        <v>-0.011544</v>
+      </c>
+      <c r="N22">
+        <v>0.017746</v>
+      </c>
+      <c r="O22">
         <v>-0.01202</v>
       </c>
-      <c r="K22">
-        <v>-0.011544</v>
-      </c>
-      <c r="L22">
-        <v>0.017746</v>
-      </c>
-      <c r="M22">
-        <v>-0.006855</v>
-      </c>
-      <c r="N22">
+      <c r="P22">
+        <v>-0.048389</v>
+      </c>
+      <c r="Q22">
+        <v>-0.021341</v>
+      </c>
+      <c r="R22">
         <v>-0.016609</v>
       </c>
-      <c r="O22">
+      <c r="S22">
+        <v>-0.000694</v>
+      </c>
+      <c r="T22">
         <v>-0.015429</v>
       </c>
-      <c r="P22">
-        <v>-0.030408</v>
-      </c>
-      <c r="Q22">
-        <v>0.011755</v>
-      </c>
-      <c r="R22">
-        <v>0.07531499999999999</v>
-      </c>
-      <c r="S22">
-        <v>0.010218</v>
-      </c>
-      <c r="T22">
-        <v>0.022081</v>
-      </c>
       <c r="U22">
-        <v>-0.021341</v>
+        <v>0.009377999999999999</v>
       </c>
       <c r="V22">
         <v>-0.013975</v>
       </c>
       <c r="W22">
+        <v>-0.006</v>
+      </c>
+      <c r="X22">
+        <v>0.011755</v>
+      </c>
+      <c r="Y22">
         <v>0.019048</v>
-      </c>
-      <c r="X22">
-        <v>0.009377999999999999</v>
-      </c>
-      <c r="Y22">
-        <v>-0.000694</v>
       </c>
       <c r="Z22" s="2">
         <v>44594</v>
@@ -8878,76 +8878,76 @@
         <v>-14</v>
       </c>
       <c r="B23">
-        <v>-0.029915</v>
+        <v>-0.024293</v>
       </c>
       <c r="C23">
+        <v>-0.012658</v>
+      </c>
+      <c r="D23">
         <v>-0.085767</v>
       </c>
-      <c r="D23">
+      <c r="E23">
+        <v>-0.008952</v>
+      </c>
+      <c r="F23">
         <v>-0.003048</v>
-      </c>
-      <c r="E23">
-        <v>-0.269248</v>
-      </c>
-      <c r="F23">
-        <v>-0.011329</v>
       </c>
       <c r="G23">
         <v>-0.037267</v>
       </c>
       <c r="H23">
-        <v>-0.008952</v>
+        <v>-0.017217</v>
       </c>
       <c r="I23">
+        <v>-0.027525</v>
+      </c>
+      <c r="J23">
+        <v>0.000538</v>
+      </c>
+      <c r="K23">
+        <v>-0.029915</v>
+      </c>
+      <c r="L23">
         <v>-0.000846</v>
       </c>
-      <c r="J23">
+      <c r="M23">
+        <v>0.013141</v>
+      </c>
+      <c r="N23">
+        <v>0.009426</v>
+      </c>
+      <c r="O23">
         <v>0.006321</v>
       </c>
-      <c r="K23">
-        <v>0.013141</v>
-      </c>
-      <c r="L23">
-        <v>0.009426</v>
-      </c>
-      <c r="M23">
-        <v>-0.017217</v>
-      </c>
-      <c r="N23">
+      <c r="P23">
+        <v>-0.269248</v>
+      </c>
+      <c r="Q23">
+        <v>-0.015608</v>
+      </c>
+      <c r="R23">
         <v>-0.016889</v>
       </c>
-      <c r="O23">
+      <c r="S23">
+        <v>-0.037476</v>
+      </c>
+      <c r="T23">
         <v>-0.018938</v>
       </c>
-      <c r="P23">
-        <v>-0.012658</v>
-      </c>
-      <c r="Q23">
-        <v>0.015107</v>
-      </c>
-      <c r="R23">
-        <v>-0.027525</v>
-      </c>
-      <c r="S23">
-        <v>-0.024293</v>
-      </c>
-      <c r="T23">
-        <v>0.000538</v>
-      </c>
       <c r="U23">
-        <v>-0.015608</v>
+        <v>-0.024693</v>
       </c>
       <c r="V23">
         <v>-0.018198</v>
       </c>
       <c r="W23">
+        <v>-0.011329</v>
+      </c>
+      <c r="X23">
+        <v>0.015107</v>
+      </c>
+      <c r="Y23">
         <v>-0.024105</v>
-      </c>
-      <c r="X23">
-        <v>-0.024693</v>
-      </c>
-      <c r="Y23">
-        <v>-0.037476</v>
       </c>
       <c r="Z23" s="2">
         <v>44595</v>
@@ -8958,76 +8958,76 @@
         <v>-13</v>
       </c>
       <c r="B24">
-        <v>0.000871</v>
+        <v>-0.01043</v>
       </c>
       <c r="C24">
+        <v>0.002891</v>
+      </c>
+      <c r="D24">
         <v>0.017019</v>
       </c>
-      <c r="D24">
+      <c r="E24">
+        <v>-0.007144</v>
+      </c>
+      <c r="F24">
         <v>0.009322</v>
-      </c>
-      <c r="E24">
-        <v>0.462578</v>
-      </c>
-      <c r="F24">
-        <v>0.014257</v>
       </c>
       <c r="G24">
         <v>-0.005712</v>
       </c>
       <c r="H24">
-        <v>-0.007144</v>
+        <v>-0.001816</v>
       </c>
       <c r="I24">
+        <v>0.010027</v>
+      </c>
+      <c r="J24">
+        <v>-0.003079</v>
+      </c>
+      <c r="K24">
+        <v>0.000871</v>
+      </c>
+      <c r="L24">
         <v>-0.019653</v>
       </c>
-      <c r="J24">
+      <c r="M24">
+        <v>-0.009254</v>
+      </c>
+      <c r="N24">
+        <v>-0.016029</v>
+      </c>
+      <c r="O24">
         <v>-0.028389</v>
       </c>
-      <c r="K24">
-        <v>-0.009254</v>
-      </c>
-      <c r="L24">
-        <v>-0.016029</v>
-      </c>
-      <c r="M24">
-        <v>-0.001816</v>
-      </c>
-      <c r="N24">
+      <c r="P24">
+        <v>0.462578</v>
+      </c>
+      <c r="Q24">
+        <v>-0.027914</v>
+      </c>
+      <c r="R24">
         <v>0.004901</v>
       </c>
-      <c r="O24">
+      <c r="S24">
+        <v>-0.01711</v>
+      </c>
+      <c r="T24">
         <v>-0.0179</v>
       </c>
-      <c r="P24">
-        <v>0.002891</v>
-      </c>
-      <c r="Q24">
-        <v>-0.000569</v>
-      </c>
-      <c r="R24">
-        <v>0.010027</v>
-      </c>
-      <c r="S24">
-        <v>-0.01043</v>
-      </c>
-      <c r="T24">
-        <v>-0.003079</v>
-      </c>
       <c r="U24">
-        <v>-0.027914</v>
+        <v>0.005144</v>
       </c>
       <c r="V24">
         <v>-0.012973</v>
       </c>
       <c r="W24">
+        <v>0.014257</v>
+      </c>
+      <c r="X24">
+        <v>-0.000569</v>
+      </c>
+      <c r="Y24">
         <v>0.036402</v>
-      </c>
-      <c r="X24">
-        <v>0.005144</v>
-      </c>
-      <c r="Y24">
-        <v>-0.01711</v>
       </c>
       <c r="Z24" s="2">
         <v>44596</v>
@@ -9038,76 +9038,76 @@
         <v>-12</v>
       </c>
       <c r="B25">
-        <v>0.036385</v>
+        <v>0.005269</v>
       </c>
       <c r="C25">
+        <v>0.027337</v>
+      </c>
+      <c r="D25">
         <v>-0.013294</v>
       </c>
-      <c r="D25">
+      <c r="E25">
+        <v>0.003954</v>
+      </c>
+      <c r="F25">
         <v>0.021351</v>
-      </c>
-      <c r="E25">
-        <v>-0.026828</v>
-      </c>
-      <c r="F25">
-        <v>0.018296</v>
       </c>
       <c r="G25">
         <v>-0.012553</v>
       </c>
       <c r="H25">
-        <v>0.003954</v>
+        <v>0.044689</v>
       </c>
       <c r="I25">
+        <v>-0.004924</v>
+      </c>
+      <c r="J25">
+        <v>-0.01288</v>
+      </c>
+      <c r="K25">
+        <v>0.036385</v>
+      </c>
+      <c r="L25">
         <v>0</v>
       </c>
-      <c r="J25">
+      <c r="M25">
+        <v>0.020289</v>
+      </c>
+      <c r="N25">
+        <v>-0.007519</v>
+      </c>
+      <c r="O25">
         <v>0.004588</v>
       </c>
-      <c r="K25">
-        <v>0.020289</v>
-      </c>
-      <c r="L25">
-        <v>-0.007519</v>
-      </c>
-      <c r="M25">
-        <v>0.044689</v>
-      </c>
-      <c r="N25">
+      <c r="P25">
+        <v>-0.026828</v>
+      </c>
+      <c r="Q25">
+        <v>0.002884</v>
+      </c>
+      <c r="R25">
         <v>-0.011474</v>
       </c>
-      <c r="O25">
+      <c r="S25">
+        <v>-0.00682</v>
+      </c>
+      <c r="T25">
         <v>-0.009514</v>
       </c>
-      <c r="P25">
-        <v>0.027337</v>
-      </c>
-      <c r="Q25">
-        <v>0.013278</v>
-      </c>
-      <c r="R25">
-        <v>-0.004924</v>
-      </c>
-      <c r="S25">
-        <v>0.005269</v>
-      </c>
-      <c r="T25">
-        <v>-0.01288</v>
-      </c>
       <c r="U25">
-        <v>0.002884</v>
+        <v>-0.003709</v>
       </c>
       <c r="V25">
         <v>-0.008505</v>
       </c>
       <c r="W25">
+        <v>0.018296</v>
+      </c>
+      <c r="X25">
+        <v>0.013278</v>
+      </c>
+      <c r="Y25">
         <v>-0.013225</v>
-      </c>
-      <c r="X25">
-        <v>-0.003709</v>
-      </c>
-      <c r="Y25">
-        <v>-0.00682</v>
       </c>
       <c r="Z25" s="2">
         <v>44599</v>
@@ -9118,76 +9118,76 @@
         <v>-11</v>
       </c>
       <c r="B26">
-        <v>0.010734</v>
+        <v>-0.015058</v>
       </c>
       <c r="C26">
+        <v>0.003365</v>
+      </c>
+      <c r="D26">
         <v>-0.017248</v>
       </c>
-      <c r="D26">
+      <c r="E26">
+        <v>-0.028789</v>
+      </c>
+      <c r="F26">
         <v>0.031391</v>
-      </c>
-      <c r="E26">
-        <v>-0.008484</v>
-      </c>
-      <c r="F26">
-        <v>-0.004543</v>
       </c>
       <c r="G26">
         <v>-0.008673999999999999</v>
       </c>
       <c r="H26">
-        <v>-0.028789</v>
+        <v>-0.034612</v>
       </c>
       <c r="I26">
+        <v>0.052434</v>
+      </c>
+      <c r="J26">
+        <v>0.004675</v>
+      </c>
+      <c r="K26">
+        <v>0.010734</v>
+      </c>
+      <c r="L26">
         <v>-0.002469</v>
       </c>
-      <c r="J26">
+      <c r="M26">
+        <v>0.020097</v>
+      </c>
+      <c r="N26">
+        <v>-0.002248</v>
+      </c>
+      <c r="O26">
         <v>-0.0003</v>
       </c>
-      <c r="K26">
-        <v>0.020097</v>
-      </c>
-      <c r="L26">
-        <v>-0.002248</v>
-      </c>
-      <c r="M26">
-        <v>-0.034612</v>
-      </c>
-      <c r="N26">
+      <c r="P26">
+        <v>-0.008484</v>
+      </c>
+      <c r="Q26">
+        <v>0.012024</v>
+      </c>
+      <c r="R26">
         <v>0.034352</v>
       </c>
-      <c r="O26">
+      <c r="S26">
+        <v>0.032084</v>
+      </c>
+      <c r="T26">
         <v>0.024308</v>
       </c>
-      <c r="P26">
-        <v>0.003365</v>
-      </c>
-      <c r="Q26">
-        <v>0.006852</v>
-      </c>
-      <c r="R26">
-        <v>0.052434</v>
-      </c>
-      <c r="S26">
-        <v>-0.015058</v>
-      </c>
-      <c r="T26">
-        <v>0.004675</v>
-      </c>
       <c r="U26">
-        <v>0.012024</v>
+        <v>0.008366</v>
       </c>
       <c r="V26">
         <v>0.010011</v>
       </c>
       <c r="W26">
+        <v>-0.004543</v>
+      </c>
+      <c r="X26">
+        <v>0.006852</v>
+      </c>
+      <c r="Y26">
         <v>-0.023811</v>
-      </c>
-      <c r="X26">
-        <v>0.008366</v>
-      </c>
-      <c r="Y26">
-        <v>0.032084</v>
       </c>
       <c r="Z26" s="2">
         <v>44600</v>
@@ -9198,76 +9198,76 @@
         <v>-10</v>
       </c>
       <c r="B27">
-        <v>0.031411</v>
+        <v>0.013908</v>
       </c>
       <c r="C27">
+        <v>-0.011828</v>
+      </c>
+      <c r="D27">
         <v>0.045832</v>
       </c>
-      <c r="D27">
+      <c r="E27">
+        <v>-0.004459</v>
+      </c>
+      <c r="F27">
         <v>-0.001566</v>
-      </c>
-      <c r="E27">
-        <v>0.069915</v>
-      </c>
-      <c r="F27">
-        <v>0.018793</v>
       </c>
       <c r="G27">
         <v>-0.004953</v>
       </c>
       <c r="H27">
-        <v>-0.004459</v>
+        <v>0.012772</v>
       </c>
       <c r="I27">
+        <v>0.023721</v>
+      </c>
+      <c r="J27">
+        <v>0.014201</v>
+      </c>
+      <c r="K27">
+        <v>0.031411</v>
+      </c>
+      <c r="L27">
         <v>-0.000618</v>
       </c>
-      <c r="J27">
+      <c r="M27">
+        <v>0.004769</v>
+      </c>
+      <c r="N27">
+        <v>-0.002253</v>
+      </c>
+      <c r="O27">
         <v>-0.010109</v>
       </c>
-      <c r="K27">
-        <v>0.004769</v>
-      </c>
-      <c r="L27">
-        <v>-0.002253</v>
-      </c>
-      <c r="M27">
-        <v>0.012772</v>
-      </c>
-      <c r="N27">
+      <c r="P27">
+        <v>0.069915</v>
+      </c>
+      <c r="Q27">
+        <v>0.012444</v>
+      </c>
+      <c r="R27">
         <v>0.029197</v>
       </c>
-      <c r="O27">
+      <c r="S27">
+        <v>0.023246</v>
+      </c>
+      <c r="T27">
         <v>-0.016549</v>
       </c>
-      <c r="P27">
-        <v>-0.011828</v>
-      </c>
-      <c r="Q27">
-        <v>-0.002162</v>
-      </c>
-      <c r="R27">
-        <v>0.023721</v>
-      </c>
-      <c r="S27">
-        <v>0.013908</v>
-      </c>
-      <c r="T27">
-        <v>0.014201</v>
-      </c>
       <c r="U27">
-        <v>0.012444</v>
+        <v>0.014413</v>
       </c>
       <c r="V27">
         <v>0.013651</v>
       </c>
       <c r="W27">
+        <v>0.018793</v>
+      </c>
+      <c r="X27">
+        <v>-0.002162</v>
+      </c>
+      <c r="Y27">
         <v>0.067131</v>
-      </c>
-      <c r="X27">
-        <v>0.014413</v>
-      </c>
-      <c r="Y27">
-        <v>0.023246</v>
       </c>
       <c r="Z27" s="2">
         <v>44601</v>
@@ -9278,76 +9278,76 @@
         <v>-9</v>
       </c>
       <c r="B28">
-        <v>-0.019501</v>
+        <v>-0.015034</v>
       </c>
       <c r="C28">
+        <v>-0.002269</v>
+      </c>
+      <c r="D28">
         <v>-0.208084</v>
       </c>
-      <c r="D28">
+      <c r="E28">
+        <v>-0.017048</v>
+      </c>
+      <c r="F28">
         <v>0.006898</v>
-      </c>
-      <c r="E28">
-        <v>0.008404999999999999</v>
-      </c>
-      <c r="F28">
-        <v>-0.009428000000000001</v>
       </c>
       <c r="G28">
         <v>0.000392</v>
       </c>
       <c r="H28">
-        <v>-0.017048</v>
+        <v>-0.005855</v>
       </c>
       <c r="I28">
+        <v>0.000572</v>
+      </c>
+      <c r="J28">
+        <v>-0.021143</v>
+      </c>
+      <c r="K28">
+        <v>-0.019501</v>
+      </c>
+      <c r="L28">
         <v>-0.014322</v>
       </c>
-      <c r="J28">
+      <c r="M28">
+        <v>-0.009703</v>
+      </c>
+      <c r="N28">
+        <v>-0.015343</v>
+      </c>
+      <c r="O28">
         <v>-0.007153</v>
       </c>
-      <c r="K28">
-        <v>-0.009703</v>
-      </c>
-      <c r="L28">
-        <v>-0.015343</v>
-      </c>
-      <c r="M28">
-        <v>-0.005855</v>
-      </c>
-      <c r="N28">
+      <c r="P28">
+        <v>0.008404999999999999</v>
+      </c>
+      <c r="Q28">
+        <v>0.001685</v>
+      </c>
+      <c r="R28">
         <v>0.001546</v>
       </c>
-      <c r="O28">
+      <c r="S28">
+        <v>-0.035141</v>
+      </c>
+      <c r="T28">
         <v>-0.011839</v>
       </c>
-      <c r="P28">
-        <v>-0.002269</v>
-      </c>
-      <c r="Q28">
-        <v>-0.003428</v>
-      </c>
-      <c r="R28">
-        <v>0.000572</v>
-      </c>
-      <c r="S28">
-        <v>-0.015034</v>
-      </c>
-      <c r="T28">
-        <v>-0.021143</v>
-      </c>
       <c r="U28">
-        <v>0.001685</v>
+        <v>-0.018282</v>
       </c>
       <c r="V28">
         <v>-0.013993</v>
       </c>
       <c r="W28">
+        <v>-0.009428000000000001</v>
+      </c>
+      <c r="X28">
+        <v>-0.003428</v>
+      </c>
+      <c r="Y28">
         <v>-0.020971</v>
-      </c>
-      <c r="X28">
-        <v>-0.018282</v>
-      </c>
-      <c r="Y28">
-        <v>-0.035141</v>
       </c>
       <c r="Z28" s="2">
         <v>44602</v>
@@ -9358,76 +9358,76 @@
         <v>-8</v>
       </c>
       <c r="B29">
-        <v>-0.023483</v>
+        <v>-0.016408</v>
       </c>
       <c r="C29">
+        <v>0.002835</v>
+      </c>
+      <c r="D29">
         <v>0.141617</v>
       </c>
-      <c r="D29">
+      <c r="E29">
+        <v>0.003551</v>
+      </c>
+      <c r="F29">
         <v>-0.030753</v>
-      </c>
-      <c r="E29">
-        <v>-0.028213</v>
-      </c>
-      <c r="F29">
-        <v>0.005548</v>
       </c>
       <c r="G29">
         <v>0.001044</v>
       </c>
       <c r="H29">
-        <v>0.003551</v>
+        <v>0.036349</v>
       </c>
       <c r="I29">
+        <v>-0.042013</v>
+      </c>
+      <c r="J29">
+        <v>-0.017927</v>
+      </c>
+      <c r="K29">
+        <v>-0.023483</v>
+      </c>
+      <c r="L29">
         <v>-0.002386</v>
       </c>
-      <c r="J29">
+      <c r="M29">
+        <v>-0.009227000000000001</v>
+      </c>
+      <c r="N29">
+        <v>-0.005615</v>
+      </c>
+      <c r="O29">
         <v>0.010483</v>
       </c>
-      <c r="K29">
-        <v>-0.009227000000000001</v>
-      </c>
-      <c r="L29">
-        <v>-0.005615</v>
-      </c>
-      <c r="M29">
-        <v>0.036349</v>
-      </c>
-      <c r="N29">
+      <c r="P29">
+        <v>-0.028213</v>
+      </c>
+      <c r="Q29">
+        <v>-0.033669</v>
+      </c>
+      <c r="R29">
         <v>-0.031699</v>
       </c>
-      <c r="O29">
+      <c r="S29">
+        <v>-0.053545</v>
+      </c>
+      <c r="T29">
         <v>0.001598</v>
       </c>
-      <c r="P29">
-        <v>0.002835</v>
-      </c>
-      <c r="Q29">
-        <v>-0.004917</v>
-      </c>
-      <c r="R29">
-        <v>-0.042013</v>
-      </c>
-      <c r="S29">
-        <v>-0.016408</v>
-      </c>
-      <c r="T29">
-        <v>-0.017927</v>
-      </c>
       <c r="U29">
-        <v>-0.033669</v>
+        <v>-0.019152</v>
       </c>
       <c r="V29">
         <v>-0.016228</v>
       </c>
       <c r="W29">
+        <v>0.005548</v>
+      </c>
+      <c r="X29">
+        <v>-0.004917</v>
+      </c>
+      <c r="Y29">
         <v>0.044991</v>
-      </c>
-      <c r="X29">
-        <v>-0.019152</v>
-      </c>
-      <c r="Y29">
-        <v>-0.053545</v>
       </c>
       <c r="Z29" s="2">
         <v>44603</v>
@@ -9438,76 +9438,76 @@
         <v>-7</v>
       </c>
       <c r="B30">
-        <v>-0.012924</v>
+        <v>-0.004464</v>
       </c>
       <c r="C30">
+        <v>-0.0017</v>
+      </c>
+      <c r="D30">
         <v>0.013804</v>
       </c>
-      <c r="D30">
+      <c r="E30">
+        <v>-0.019488</v>
+      </c>
+      <c r="F30">
         <v>0.012626</v>
-      </c>
-      <c r="E30">
-        <v>0.003286</v>
-      </c>
-      <c r="F30">
-        <v>-0.001047</v>
       </c>
       <c r="G30">
         <v>-0.002221</v>
       </c>
       <c r="H30">
-        <v>-0.019488</v>
+        <v>-0.033036</v>
       </c>
       <c r="I30">
+        <v>-0.004779</v>
+      </c>
+      <c r="J30">
+        <v>-0.021832</v>
+      </c>
+      <c r="K30">
+        <v>-0.012924</v>
+      </c>
+      <c r="L30">
         <v>-0.003401</v>
       </c>
-      <c r="J30">
+      <c r="M30">
+        <v>-0.000428</v>
+      </c>
+      <c r="N30">
+        <v>0.002875</v>
+      </c>
+      <c r="O30">
         <v>0.000302</v>
       </c>
-      <c r="K30">
-        <v>-0.000428</v>
-      </c>
-      <c r="L30">
-        <v>0.002875</v>
-      </c>
-      <c r="M30">
-        <v>-0.033036</v>
-      </c>
-      <c r="N30">
+      <c r="P30">
+        <v>0.003286</v>
+      </c>
+      <c r="Q30">
+        <v>-0.010502</v>
+      </c>
+      <c r="R30">
         <v>0.024568</v>
       </c>
-      <c r="O30">
+      <c r="S30">
+        <v>-0.002431</v>
+      </c>
+      <c r="T30">
         <v>0.014622</v>
       </c>
-      <c r="P30">
-        <v>-0.0017</v>
-      </c>
-      <c r="Q30">
-        <v>0.006947</v>
-      </c>
-      <c r="R30">
-        <v>-0.004779</v>
-      </c>
-      <c r="S30">
-        <v>-0.004464</v>
-      </c>
-      <c r="T30">
-        <v>-0.021832</v>
-      </c>
       <c r="U30">
-        <v>-0.010502</v>
+        <v>-0.003848</v>
       </c>
       <c r="V30">
         <v>-0.001879</v>
       </c>
       <c r="W30">
+        <v>-0.001047</v>
+      </c>
+      <c r="X30">
+        <v>0.006947</v>
+      </c>
+      <c r="Y30">
         <v>-0.021355</v>
-      </c>
-      <c r="X30">
-        <v>-0.003848</v>
-      </c>
-      <c r="Y30">
-        <v>-0.002431</v>
       </c>
       <c r="Z30" s="2">
         <v>44606</v>
@@ -9518,76 +9518,76 @@
         <v>-6</v>
       </c>
       <c r="B31">
-        <v>0.021527</v>
+        <v>0.038247</v>
       </c>
       <c r="C31">
+        <v>0.015757</v>
+      </c>
+      <c r="D31">
         <v>0.005317</v>
       </c>
-      <c r="D31">
+      <c r="E31">
+        <v>-0.000201</v>
+      </c>
+      <c r="F31">
         <v>0.042472</v>
-      </c>
-      <c r="E31">
-        <v>0.044671</v>
-      </c>
-      <c r="F31">
-        <v>0.014267</v>
       </c>
       <c r="G31">
         <v>0.017371</v>
       </c>
       <c r="H31">
-        <v>-0.000201</v>
+        <v>0.019902</v>
       </c>
       <c r="I31">
+        <v>0.045935</v>
+      </c>
+      <c r="J31">
+        <v>0.009726</v>
+      </c>
+      <c r="K31">
+        <v>0.021527</v>
+      </c>
+      <c r="L31">
         <v>-0.008616</v>
       </c>
-      <c r="J31">
+      <c r="M31">
+        <v>0.009231</v>
+      </c>
+      <c r="N31">
+        <v>0.00051</v>
+      </c>
+      <c r="O31">
         <v>-0.006594</v>
       </c>
-      <c r="K31">
-        <v>0.009231</v>
-      </c>
-      <c r="L31">
-        <v>0.00051</v>
-      </c>
-      <c r="M31">
-        <v>0.019902</v>
-      </c>
-      <c r="N31">
+      <c r="P31">
+        <v>0.044671</v>
+      </c>
+      <c r="Q31">
+        <v>0.048092</v>
+      </c>
+      <c r="R31">
         <v>0.027618</v>
       </c>
-      <c r="O31">
+      <c r="S31">
+        <v>0.03081</v>
+      </c>
+      <c r="T31">
         <v>0.06827</v>
       </c>
-      <c r="P31">
-        <v>0.015757</v>
-      </c>
-      <c r="Q31">
-        <v>0.012233</v>
-      </c>
-      <c r="R31">
-        <v>0.045935</v>
-      </c>
-      <c r="S31">
-        <v>0.038247</v>
-      </c>
-      <c r="T31">
-        <v>0.009726</v>
-      </c>
       <c r="U31">
-        <v>0.048092</v>
+        <v>0.015644</v>
       </c>
       <c r="V31">
         <v>0.002991</v>
       </c>
       <c r="W31">
+        <v>0.014267</v>
+      </c>
+      <c r="X31">
+        <v>0.012233</v>
+      </c>
+      <c r="Y31">
         <v>0.008245000000000001</v>
-      </c>
-      <c r="X31">
-        <v>0.015644</v>
-      </c>
-      <c r="Y31">
-        <v>0.03081</v>
       </c>
       <c r="Z31" s="2">
         <v>44607</v>
@@ -9910,7 +9910,7 @@
         <v>100</v>
       </c>
       <c r="F11" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="G11" t="s">
         <v>144</v>
@@ -9939,7 +9939,7 @@
         <v>101</v>
       </c>
       <c r="F12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G12" t="s">
         <v>145</v>
@@ -9968,7 +9968,7 @@
         <v>102</v>
       </c>
       <c r="F13" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="G13" t="s">
         <v>146</v>
@@ -10142,13 +10142,13 @@
         <v>108</v>
       </c>
       <c r="F19" t="s">
-        <v>130</v>
+        <v>89</v>
       </c>
       <c r="G19" t="s">
         <v>152</v>
       </c>
       <c r="H19" t="s">
-        <v>175</v>
+        <v>54</v>
       </c>
       <c r="I19" t="s">
         <v>196</v>
@@ -10171,13 +10171,13 @@
         <v>109</v>
       </c>
       <c r="F20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G20" t="s">
         <v>153</v>
       </c>
       <c r="H20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I20" t="s">
         <v>197</v>
@@ -10197,19 +10197,19 @@
         <v>86</v>
       </c>
       <c r="E21" t="s">
-        <v>110</v>
+        <v>62</v>
       </c>
       <c r="F21" t="s">
-        <v>132</v>
+        <v>86</v>
       </c>
       <c r="G21" t="s">
-        <v>154</v>
+        <v>62</v>
       </c>
       <c r="H21" t="s">
-        <v>177</v>
+        <v>62</v>
       </c>
       <c r="I21" t="s">
-        <v>198</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -10226,19 +10226,19 @@
         <v>87</v>
       </c>
       <c r="E22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F22" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G22" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H22" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I22" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -10255,19 +10255,19 @@
         <v>88</v>
       </c>
       <c r="E23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F23" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G23" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H23" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I23" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -10284,19 +10284,19 @@
         <v>89</v>
       </c>
       <c r="E24" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
       <c r="F24" t="s">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="G24" t="s">
-        <v>65</v>
+        <v>156</v>
       </c>
       <c r="H24" t="s">
-        <v>65</v>
+        <v>177</v>
       </c>
       <c r="I24" t="s">
-        <v>65</v>
+        <v>200</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -10316,13 +10316,13 @@
         <v>113</v>
       </c>
       <c r="F25" t="s">
-        <v>82</v>
+        <v>134</v>
       </c>
       <c r="G25" t="s">
         <v>157</v>
       </c>
       <c r="H25" t="s">
-        <v>52</v>
+        <v>178</v>
       </c>
       <c r="I25" t="s">
         <v>201</v>
